--- a/python/크롤링 유료/01 네이버증권뉴스/keyword_analysis_CHATGPT.xlsx
+++ b/python/크롤링 유료/01 네이버증권뉴스/keyword_analysis_CHATGPT.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jooladen\Desktop\prog_dev_exam\python\크롤링 유료\01 네이버증권뉴스\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92462331-06AE-4C72-B8B7-5FA47B68B9C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC16CCEC-DB89-4259-AA8D-165ED9CA3B81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="275">
   <si>
     <t>키워드</t>
   </si>
@@ -46,839 +46,812 @@
     <t>인더스트리뉴스</t>
   </si>
   <si>
+    <t>포화도 40%</t>
+  </si>
+  <si>
+    <t>CHATGPT교육</t>
+  </si>
+  <si>
+    <t>100%+</t>
+  </si>
+  <si>
+    <t>과포화 (0일 경과)</t>
+  </si>
+  <si>
+    <t>언리얼엔진5</t>
+  </si>
+  <si>
+    <t>과포화 (100% 이상)</t>
+  </si>
+  <si>
+    <t>기술학교</t>
+  </si>
+  <si>
+    <t>컴퓨터프로그래밍</t>
+  </si>
+  <si>
+    <t>GPT교육</t>
+  </si>
+  <si>
+    <t>생성형AI교육</t>
+  </si>
+  <si>
+    <t>쳇GPT교육</t>
+  </si>
+  <si>
+    <t>IT관련자격증</t>
+  </si>
+  <si>
+    <t>챗지피티교육</t>
+  </si>
+  <si>
+    <t>CHATGPT번역</t>
+  </si>
+  <si>
+    <t>챗GPT구매</t>
+  </si>
+  <si>
+    <t>챗지피티강의</t>
+  </si>
+  <si>
+    <t>GPT강의</t>
+  </si>
+  <si>
+    <t>대화AI</t>
+  </si>
+  <si>
+    <t>CHATGPT3.5</t>
+  </si>
+  <si>
+    <t>포화도 60%</t>
+  </si>
+  <si>
+    <t>AI딥러닝</t>
+  </si>
+  <si>
+    <t>AI공부</t>
+  </si>
+  <si>
+    <t>AI수학</t>
+  </si>
+  <si>
+    <t>AI전문가</t>
+  </si>
+  <si>
+    <t>AI직업</t>
+  </si>
+  <si>
+    <t>AI취업</t>
+  </si>
+  <si>
+    <t>AI코딩</t>
+  </si>
+  <si>
+    <t>AI튜터</t>
+  </si>
+  <si>
+    <t>AI학원</t>
+  </si>
+  <si>
+    <t>AI사업</t>
+  </si>
+  <si>
+    <t>AI상담</t>
+  </si>
+  <si>
+    <t>CHATGPT책</t>
+  </si>
+  <si>
+    <t>CHATGPT활용법</t>
+  </si>
+  <si>
+    <t>챗GPT자격증</t>
+  </si>
+  <si>
+    <t>챗지피티홈페이지</t>
+  </si>
+  <si>
+    <t>챗지피티구매</t>
+  </si>
+  <si>
+    <t>유튜브콘텐츠</t>
+  </si>
+  <si>
+    <t>AI마케팅</t>
+  </si>
+  <si>
+    <t>AI서비스</t>
+  </si>
+  <si>
+    <t>CHATGPT활용</t>
+  </si>
+  <si>
+    <t>로블록스코딩</t>
+  </si>
+  <si>
     <t>포화도 50%</t>
   </si>
   <si>
-    <t>부산컴퓨터학원</t>
+    <t>브루편집</t>
+  </si>
+  <si>
+    <t>메타버스게임</t>
+  </si>
+  <si>
+    <t>로블록스게임만들기</t>
+  </si>
+  <si>
+    <t>글감 부족 / 주제 탐색 필요</t>
+  </si>
+  <si>
+    <t>챗봇만들기</t>
+  </si>
+  <si>
+    <t>생성AI</t>
+  </si>
+  <si>
+    <t>챗GPT이용방법</t>
+  </si>
+  <si>
+    <t>CHATGPT자소서</t>
+  </si>
+  <si>
+    <t>AI챗GPT</t>
+  </si>
+  <si>
+    <t>게임만들기</t>
+  </si>
+  <si>
+    <t>게임아카데미</t>
+  </si>
+  <si>
+    <t>게임개발</t>
+  </si>
+  <si>
+    <t>AI업체</t>
+  </si>
+  <si>
+    <t>챗GPT무료강의</t>
+  </si>
+  <si>
+    <t>챗GPT학원</t>
+  </si>
+  <si>
+    <t>AI블로그</t>
+  </si>
+  <si>
+    <t>AI창업</t>
+  </si>
+  <si>
+    <t>조코딩</t>
+  </si>
+  <si>
+    <t>무료지피티</t>
+  </si>
+  <si>
+    <t>챗GPT공부</t>
+  </si>
+  <si>
+    <t>빙챗</t>
+  </si>
+  <si>
+    <t>챗GPT무료교육</t>
+  </si>
+  <si>
+    <t>지피티교육</t>
+  </si>
+  <si>
+    <t>쳇GPT강의</t>
+  </si>
+  <si>
+    <t>포화도 90%</t>
+  </si>
+  <si>
+    <t>챗GPT활용교육</t>
+  </si>
+  <si>
+    <t>AI솔루션</t>
+  </si>
+  <si>
+    <t>챗GPT사이트</t>
+  </si>
+  <si>
+    <t>CHATBOT</t>
+  </si>
+  <si>
+    <t>CHAT지피티</t>
+  </si>
+  <si>
+    <t>디지털콘텐츠</t>
+  </si>
+  <si>
+    <t>3D맥스</t>
+  </si>
+  <si>
+    <t>AI알고리즘</t>
+  </si>
+  <si>
+    <t>AI이미지만들기</t>
+  </si>
+  <si>
+    <t>플레이그라운드AI</t>
+  </si>
+  <si>
+    <t>포화도 10%</t>
+  </si>
+  <si>
+    <t>HATCHFUL</t>
+  </si>
+  <si>
+    <t>APPSHEET</t>
+  </si>
+  <si>
+    <t>랭체인</t>
+  </si>
+  <si>
+    <t>AI클래스</t>
+  </si>
+  <si>
+    <t>챗GPT강연</t>
+  </si>
+  <si>
+    <t>쳇GPT활용</t>
+  </si>
+  <si>
+    <t>포화도 70%</t>
+  </si>
+  <si>
+    <t>쳇GPT4</t>
+  </si>
+  <si>
+    <t>AI편집</t>
+  </si>
+  <si>
+    <t>게임프로그래밍학원</t>
+  </si>
+  <si>
+    <t>AI교육센터</t>
+  </si>
+  <si>
+    <t>ZEPETO</t>
+  </si>
+  <si>
+    <t>인공지능프로그램</t>
+  </si>
+  <si>
+    <t>게임개발학원</t>
+  </si>
+  <si>
+    <t>인공지능자격증</t>
+  </si>
+  <si>
+    <t>인공지능개발자</t>
+  </si>
+  <si>
+    <t>기술창업</t>
+  </si>
+  <si>
+    <t>AI교육프로그램</t>
+  </si>
+  <si>
+    <t>AI활용교육</t>
+  </si>
+  <si>
+    <t>AI수업</t>
+  </si>
+  <si>
+    <t>챗지피티강사</t>
+  </si>
+  <si>
+    <t>ICT교육</t>
+  </si>
+  <si>
+    <t>AI포럼</t>
+  </si>
+  <si>
+    <t>인공지능교육</t>
+  </si>
+  <si>
+    <t>AI웹툰</t>
+  </si>
+  <si>
+    <t>AI미드저니</t>
+  </si>
+  <si>
+    <t>AI활용법</t>
+  </si>
+  <si>
+    <t>인공지능서비스</t>
+  </si>
+  <si>
+    <t>AI디자이너</t>
+  </si>
+  <si>
+    <t>AI동영상제작</t>
+  </si>
+  <si>
+    <t>AI부트캠프</t>
+  </si>
+  <si>
+    <t>KTAI전화</t>
+  </si>
+  <si>
+    <t>게임디자이너</t>
+  </si>
+  <si>
+    <t>게임원화</t>
+  </si>
+  <si>
+    <t>게임그래픽</t>
+  </si>
+  <si>
+    <t>3D게임</t>
+  </si>
+  <si>
+    <t>3D모델러</t>
+  </si>
+  <si>
+    <t>게임그래픽학원</t>
+  </si>
+  <si>
+    <t>테블로</t>
+  </si>
+  <si>
+    <t>AI스타트업</t>
+  </si>
+  <si>
+    <t>AI개발</t>
+  </si>
+  <si>
+    <t>챗지피티사이트</t>
+  </si>
+  <si>
+    <t>디지털선도학교</t>
+  </si>
+  <si>
+    <t>북러닝</t>
+  </si>
+  <si>
+    <t>디지털리터러시교육</t>
+  </si>
+  <si>
+    <t>GPT활용</t>
+  </si>
+  <si>
+    <t>무료교육</t>
+  </si>
+  <si>
+    <t>내일배움카드AI</t>
+  </si>
+  <si>
+    <t>AI만들기</t>
+  </si>
+  <si>
+    <t>AI생성이미지</t>
+  </si>
+  <si>
+    <t>AI드로잉</t>
+  </si>
+  <si>
+    <t>AI그림그리기</t>
+  </si>
+  <si>
+    <t>AI강사</t>
+  </si>
+  <si>
+    <t>AI엔지니어</t>
+  </si>
+  <si>
+    <t>AI회사</t>
+  </si>
+  <si>
+    <t>AI인공지능앱</t>
+  </si>
+  <si>
+    <t>KOGPT</t>
   </si>
   <si>
     <t>포화도 20%</t>
   </si>
   <si>
-    <t>생성형AI교육</t>
-  </si>
-  <si>
-    <t>과포화 (100% 이상)</t>
-  </si>
-  <si>
-    <t>CHATGPT교육</t>
-  </si>
-  <si>
-    <t>100%+</t>
-  </si>
-  <si>
-    <t>과포화 (0일 경과)</t>
-  </si>
-  <si>
-    <t>기술학교</t>
+    <t>HYPERCLOVAX</t>
+  </si>
+  <si>
+    <t>AITOOL</t>
+  </si>
+  <si>
+    <t>대화형인공지능</t>
+  </si>
+  <si>
+    <t>AI상담사</t>
+  </si>
+  <si>
+    <t>AI사용법</t>
+  </si>
+  <si>
+    <t>AI배우기</t>
+  </si>
+  <si>
+    <t>GPT질문</t>
+  </si>
+  <si>
+    <t>웹툰AI</t>
+  </si>
+  <si>
+    <t>AI애니메이션</t>
+  </si>
+  <si>
+    <t>AI애니메이션만들기</t>
+  </si>
+  <si>
+    <t>만화AI</t>
+  </si>
+  <si>
+    <t>AI만화</t>
+  </si>
+  <si>
+    <t>코딩교육</t>
+  </si>
+  <si>
+    <t>AI논문</t>
+  </si>
+  <si>
+    <t>AI콘텐츠</t>
+  </si>
+  <si>
+    <t>캔바강사</t>
+  </si>
+  <si>
+    <t>키오스크사용법</t>
+  </si>
+  <si>
+    <t>AI무료교육</t>
+  </si>
+  <si>
+    <t>지피티쳇</t>
+  </si>
+  <si>
+    <t>생성형AI이미지</t>
+  </si>
+  <si>
+    <t>R언어</t>
+  </si>
+  <si>
+    <t>딥러닝머신러닝</t>
+  </si>
+  <si>
+    <t>비전AI</t>
+  </si>
+  <si>
+    <t>AI서버</t>
+  </si>
+  <si>
+    <t>AI요약</t>
+  </si>
+  <si>
+    <t>AI컴퓨터</t>
+  </si>
+  <si>
+    <t>R프로그램</t>
+  </si>
+  <si>
+    <t>AI캐릭터만들기</t>
+  </si>
+  <si>
+    <t>AI관련직업</t>
+  </si>
+  <si>
+    <t>반도체아카데미</t>
+  </si>
+  <si>
+    <t>인공지능전문가</t>
+  </si>
+  <si>
+    <t>AI학습</t>
+  </si>
+  <si>
+    <t>AI빅데이터</t>
   </si>
   <si>
     <t>김해요리학원</t>
   </si>
   <si>
+    <t>KTAI통화비서</t>
+  </si>
+  <si>
+    <t>인공지능관련직업</t>
+  </si>
+  <si>
+    <t>인공지능종류</t>
+  </si>
+  <si>
+    <t>머신러닝딥러닝</t>
+  </si>
+  <si>
+    <t>인공지능직업</t>
+  </si>
+  <si>
+    <t>AI프로그램종류</t>
+  </si>
+  <si>
+    <t>인공지능교육센터</t>
+  </si>
+  <si>
+    <t>AI국비지원</t>
+  </si>
+  <si>
+    <t>캐릭터디자이너</t>
+  </si>
+  <si>
+    <t>NCS교육</t>
+  </si>
+  <si>
+    <t>인공지능기술</t>
+  </si>
+  <si>
+    <t>3D모델링학원</t>
+  </si>
+  <si>
+    <t>AI부업</t>
+  </si>
+  <si>
+    <t>MS코파일럿</t>
+  </si>
+  <si>
+    <t>AI특강</t>
+  </si>
+  <si>
+    <t>미래모빌리티</t>
+  </si>
+  <si>
+    <t>R프로그래밍</t>
+  </si>
+  <si>
+    <t>HR컨설팅</t>
+  </si>
+  <si>
+    <t>AI컨퍼런스</t>
+  </si>
+  <si>
+    <t>메타버스교육</t>
+  </si>
+  <si>
+    <t>SSCI</t>
+  </si>
+  <si>
+    <t>마케팅기획</t>
+  </si>
+  <si>
+    <t>자동화프로그램</t>
+  </si>
+  <si>
+    <t>AI홈페이지제작</t>
+  </si>
+  <si>
+    <t>웹툰그리기</t>
+  </si>
+  <si>
+    <t>웹툰만들기</t>
+  </si>
+  <si>
+    <t>만화그리기</t>
+  </si>
+  <si>
+    <t>포화도 30%</t>
+  </si>
+  <si>
+    <t>챗지피티일러스트</t>
+  </si>
+  <si>
+    <t>로고생성AI</t>
+  </si>
+  <si>
+    <t>스노우AI</t>
+  </si>
+  <si>
     <t>포화도 80%</t>
   </si>
   <si>
-    <t>리더십교육</t>
-  </si>
-  <si>
-    <t>GPT강의</t>
-  </si>
-  <si>
-    <t>챗GPT구매</t>
-  </si>
-  <si>
-    <t>부산국비지원무료교육</t>
-  </si>
-  <si>
-    <t>GPT교육</t>
-  </si>
-  <si>
-    <t>HR교육</t>
-  </si>
-  <si>
-    <t>쳇GPT교육</t>
-  </si>
-  <si>
-    <t>포화도 40%</t>
-  </si>
-  <si>
-    <t>챗지피티강의</t>
-  </si>
-  <si>
-    <t>챗GPT학원</t>
-  </si>
-  <si>
-    <t>직장인교육</t>
-  </si>
-  <si>
-    <t>랭체인</t>
-  </si>
-  <si>
-    <t>포화도 10%</t>
-  </si>
-  <si>
-    <t>CHATGPT번역</t>
-  </si>
-  <si>
-    <t>CHATGPT책</t>
-  </si>
-  <si>
-    <t>대화AI</t>
-  </si>
-  <si>
-    <t>CHATGPT활용법</t>
-  </si>
-  <si>
-    <t>유튜브콘텐츠</t>
-  </si>
-  <si>
-    <t>CHATGPT활용</t>
-  </si>
-  <si>
-    <t>챗GPT이용방법</t>
-  </si>
-  <si>
-    <t>CHATGPT자소서</t>
-  </si>
-  <si>
-    <t>포화도 60%</t>
-  </si>
-  <si>
-    <t>챗GPT글쓰기</t>
-  </si>
-  <si>
-    <t>빙챗</t>
-  </si>
-  <si>
-    <t>글감 부족 / 주제 탐색 필요</t>
-  </si>
-  <si>
-    <t>챗GPT공부</t>
-  </si>
-  <si>
-    <t>챗GPT무료강의</t>
-  </si>
-  <si>
-    <t>쳇GPT강의</t>
-  </si>
-  <si>
-    <t>포화도 90%</t>
-  </si>
-  <si>
-    <t>챗GPT자격증</t>
-  </si>
-  <si>
-    <t>AI블로그</t>
-  </si>
-  <si>
-    <t>생성AI</t>
-  </si>
-  <si>
-    <t>챗GPT영상</t>
-  </si>
-  <si>
-    <t>CHATGPT영상</t>
-  </si>
-  <si>
-    <t>지피티교육</t>
-  </si>
-  <si>
-    <t>AI마케팅</t>
-  </si>
-  <si>
-    <t>브루편집</t>
-  </si>
-  <si>
-    <t>AI편집</t>
-  </si>
-  <si>
-    <t>메타버스게임</t>
-  </si>
-  <si>
-    <t>AI교육센터</t>
-  </si>
-  <si>
-    <t>챗GPT활용교육</t>
-  </si>
-  <si>
-    <t>로블록스게임만들기</t>
-  </si>
-  <si>
-    <t>CHATBOT</t>
-  </si>
-  <si>
-    <t>인공지능이미지</t>
-  </si>
-  <si>
-    <t>챗GPT강연</t>
-  </si>
-  <si>
-    <t>쳇GPT활용</t>
-  </si>
-  <si>
-    <t>쳇GPT4</t>
-  </si>
-  <si>
-    <t>AI회사</t>
-  </si>
-  <si>
-    <t>AI활용교육</t>
-  </si>
-  <si>
-    <t>인공지능기초</t>
-  </si>
-  <si>
-    <t>인공지능교육</t>
-  </si>
-  <si>
-    <t>AI스타트업</t>
-  </si>
-  <si>
-    <t>AI미드저니</t>
-  </si>
-  <si>
-    <t>AI동영상편집</t>
-  </si>
-  <si>
-    <t>포화도 70%</t>
-  </si>
-  <si>
-    <t>AI창업</t>
-  </si>
-  <si>
-    <t>인공지능서비스</t>
-  </si>
-  <si>
-    <t>AI전문가</t>
-  </si>
-  <si>
-    <t>AI포럼</t>
-  </si>
-  <si>
-    <t>AI수업</t>
-  </si>
-  <si>
-    <t>AI클래스</t>
-  </si>
-  <si>
-    <t>퀸의대각선</t>
-  </si>
-  <si>
-    <t>혼자일수없다면나아갈수없다</t>
-  </si>
-  <si>
-    <t>흐르다</t>
-  </si>
-  <si>
-    <t>챗지피티강사</t>
-  </si>
-  <si>
-    <t>AI교육프로그램</t>
-  </si>
-  <si>
-    <t>AI웹툰</t>
-  </si>
-  <si>
-    <t>북러닝</t>
-  </si>
-  <si>
-    <t>AI콘텐츠</t>
-  </si>
-  <si>
-    <t>AI강사</t>
-  </si>
-  <si>
-    <t>AI개발</t>
-  </si>
-  <si>
-    <t>AI업체</t>
+    <t>이미지생성형AI</t>
+  </si>
+  <si>
+    <t>AI합성</t>
+  </si>
+  <si>
+    <t>CHATGPT이미지</t>
+  </si>
+  <si>
+    <t>WEBUI</t>
+  </si>
+  <si>
+    <t>3DAI</t>
+  </si>
+  <si>
+    <t>AI광고</t>
+  </si>
+  <si>
+    <t>AI그림무료</t>
+  </si>
+  <si>
+    <t>AI그림체</t>
+  </si>
+  <si>
+    <t>AI모델생성</t>
+  </si>
+  <si>
+    <t>AI배경</t>
+  </si>
+  <si>
+    <t>AI보정</t>
+  </si>
+  <si>
+    <t>AI사진변환</t>
+  </si>
+  <si>
+    <t>AI사진보정</t>
+  </si>
+  <si>
+    <t>AI사진생성</t>
+  </si>
+  <si>
+    <t>AI사진수정</t>
+  </si>
+  <si>
+    <t>AI사진어플</t>
+  </si>
+  <si>
+    <t>AI실사</t>
+  </si>
+  <si>
+    <t>DEEPLEARNING</t>
+  </si>
+  <si>
+    <t>데이터과학자</t>
+  </si>
+  <si>
+    <t>AI어시스턴트</t>
+  </si>
+  <si>
+    <t>SW교육</t>
+  </si>
+  <si>
+    <t>AI자동화</t>
+  </si>
+  <si>
+    <t>데이터분석교육</t>
+  </si>
+  <si>
+    <t>메타휴먼</t>
+  </si>
+  <si>
+    <t>카카오톡챗봇만들기</t>
+  </si>
+  <si>
+    <t>플러터플로우</t>
+  </si>
+  <si>
+    <t>CHATBOTAI</t>
+  </si>
+  <si>
+    <t>FLUTTERFLOW</t>
+  </si>
+  <si>
+    <t>AI챗봇종류</t>
+  </si>
+  <si>
+    <t>챗봇종류</t>
+  </si>
+  <si>
+    <t>AI챗봇추천</t>
+  </si>
+  <si>
+    <t>문서작성AI</t>
+  </si>
+  <si>
+    <t>디지털문해교육</t>
+  </si>
+  <si>
+    <t>SLLM</t>
+  </si>
+  <si>
+    <t>3D모션그래픽</t>
+  </si>
+  <si>
+    <t>부산코딩학원</t>
+  </si>
+  <si>
+    <t>AI통화비서</t>
+  </si>
+  <si>
+    <t>쳇봇</t>
+  </si>
+  <si>
+    <t>다빈치리졸브사용법</t>
+  </si>
+  <si>
+    <t>프리미어프로자막</t>
+  </si>
+  <si>
+    <t>캠타시아</t>
+  </si>
+  <si>
+    <t>재고관리시스템</t>
   </si>
   <si>
     <t>고용노동부직업훈련</t>
   </si>
   <si>
-    <t>기술창업</t>
-  </si>
-  <si>
-    <t>무료교육</t>
-  </si>
-  <si>
-    <t>AI딥러닝</t>
-  </si>
-  <si>
-    <t>만화AI</t>
-  </si>
-  <si>
-    <t>웹툰AI</t>
-  </si>
-  <si>
-    <t>AI만화</t>
-  </si>
-  <si>
-    <t>AI애니메이션만들기</t>
-  </si>
-  <si>
-    <t>KTAI전화</t>
-  </si>
-  <si>
-    <t>AI통화비서</t>
-  </si>
-  <si>
-    <t>AI공부</t>
-  </si>
-  <si>
-    <t>BIGDATA</t>
-  </si>
-  <si>
-    <t>AI만들기</t>
-  </si>
-  <si>
-    <t>AI부트캠프</t>
-  </si>
-  <si>
-    <t>무료지피티</t>
-  </si>
-  <si>
-    <t>인공지능개발자</t>
-  </si>
-  <si>
-    <t>서면컴퓨터학원</t>
-  </si>
-  <si>
-    <t>디지털리터러시교육</t>
-  </si>
-  <si>
-    <t>메타버스교육</t>
-  </si>
-  <si>
-    <t>AI인공지능앱</t>
-  </si>
-  <si>
-    <t>게임만들기</t>
-  </si>
-  <si>
-    <t>디지털선도학교</t>
-  </si>
-  <si>
-    <t>KTAI통화비서</t>
-  </si>
-  <si>
-    <t>AI배우기</t>
-  </si>
-  <si>
-    <t>내일배움카드AI</t>
-  </si>
-  <si>
-    <t>디지털콘텐츠</t>
-  </si>
-  <si>
-    <t>AI엔지니어</t>
-  </si>
-  <si>
-    <t>프로젝션맵핑</t>
-  </si>
-  <si>
-    <t>AI디자이너</t>
-  </si>
-  <si>
-    <t>AI드로잉</t>
-  </si>
-  <si>
-    <t>AI그림그리기</t>
-  </si>
-  <si>
-    <t>코딩교육</t>
-  </si>
-  <si>
-    <t>반도체아카데미</t>
-  </si>
-  <si>
-    <t>AI튜터</t>
-  </si>
-  <si>
-    <t>챗지피티사이트</t>
-  </si>
-  <si>
-    <t>AI사진생성</t>
-  </si>
-  <si>
-    <t>키오스크사용법</t>
-  </si>
-  <si>
-    <t>노인디지털교육</t>
-  </si>
-  <si>
-    <t>정보화교육</t>
-  </si>
-  <si>
-    <t>캔바강사</t>
-  </si>
-  <si>
-    <t>딥러닝머신러닝</t>
-  </si>
-  <si>
-    <t>AI특강</t>
-  </si>
-  <si>
-    <t>AI컴퓨터</t>
-  </si>
-  <si>
-    <t>AI알고리즘</t>
-  </si>
-  <si>
-    <t>AI솔루션</t>
-  </si>
-  <si>
-    <t>AI서버</t>
-  </si>
-  <si>
-    <t>AI사업</t>
-  </si>
-  <si>
-    <t>AI취업</t>
-  </si>
-  <si>
-    <t>인공지능전문가</t>
-  </si>
-  <si>
-    <t>AI학습</t>
-  </si>
-  <si>
-    <t>AI빅데이터</t>
-  </si>
-  <si>
-    <t>AI사용법</t>
-  </si>
-  <si>
-    <t>AI논문</t>
-  </si>
-  <si>
-    <t>김덕진소장</t>
-  </si>
-  <si>
-    <t>AI학원</t>
-  </si>
-  <si>
-    <t>AI코딩</t>
-  </si>
-  <si>
-    <t>AI수학</t>
-  </si>
-  <si>
-    <t>AI설계</t>
-  </si>
-  <si>
-    <t>AI서비스</t>
-  </si>
-  <si>
-    <t>AI상담</t>
-  </si>
-  <si>
-    <t>AI바우처</t>
-  </si>
-  <si>
-    <t>AI가격</t>
-  </si>
-  <si>
-    <t>미드저니강의</t>
-  </si>
-  <si>
-    <t>AI국비지원</t>
-  </si>
-  <si>
-    <t>무료AI그림사이트</t>
-  </si>
-  <si>
-    <t>AI이미지만들기</t>
-  </si>
-  <si>
-    <t>머신러닝딥러닝</t>
-  </si>
-  <si>
-    <t>AI컨퍼런스</t>
-  </si>
-  <si>
-    <t>SPSS다운</t>
-  </si>
-  <si>
-    <t>교육용키오스크</t>
-  </si>
-  <si>
-    <t>AI무료교육</t>
-  </si>
-  <si>
-    <t>베가스프로</t>
-  </si>
-  <si>
-    <t>다빈치리졸브사용법</t>
-  </si>
-  <si>
-    <t>캠타시아</t>
-  </si>
-  <si>
-    <t>프리미어프로자막</t>
+    <t>AI챗봇만들기</t>
+  </si>
+  <si>
+    <t>AI봇</t>
+  </si>
+  <si>
+    <t>예약프로그램</t>
+  </si>
+  <si>
+    <t>AI강연</t>
+  </si>
+  <si>
+    <t>교육프로그램</t>
+  </si>
+  <si>
+    <t>마케팅강의</t>
+  </si>
+  <si>
+    <t>AI사진만들기</t>
   </si>
   <si>
     <t>무료AI이미지</t>
   </si>
   <si>
-    <t>MS코파일럿</t>
-  </si>
-  <si>
-    <t>인공지능프로그램</t>
-  </si>
-  <si>
-    <t>검색AI</t>
-  </si>
-  <si>
-    <t>클로바보이스</t>
-  </si>
-  <si>
-    <t>가상인물</t>
-  </si>
-  <si>
-    <t>루미나네오</t>
-  </si>
-  <si>
-    <t>메타휴먼</t>
-  </si>
-  <si>
-    <t>버추얼유튜버</t>
-  </si>
-  <si>
-    <t>버츄얼유튜버</t>
-  </si>
-  <si>
-    <t>버츄얼캐릭터</t>
-  </si>
-  <si>
-    <t>AI강아지</t>
-  </si>
-  <si>
-    <t>AI노래커버</t>
-  </si>
-  <si>
-    <t>AI쇼츠</t>
-  </si>
-  <si>
-    <t>AI아바타</t>
-  </si>
-  <si>
-    <t>AI유튜브</t>
-  </si>
-  <si>
-    <t>AI음성생성</t>
-  </si>
-  <si>
-    <t>AI인플루언서</t>
-  </si>
-  <si>
-    <t>AI어시스턴트</t>
-  </si>
-  <si>
-    <t>AI관련직업</t>
-  </si>
-  <si>
-    <t>마케팅기획</t>
-  </si>
-  <si>
-    <t>AI포토샵</t>
-  </si>
-  <si>
-    <t>AI알바</t>
-  </si>
-  <si>
-    <t>DATABASE</t>
-  </si>
-  <si>
-    <t>데이터드리븐</t>
-  </si>
-  <si>
-    <t>인공지능교육센터</t>
-  </si>
-  <si>
-    <t>AI부업</t>
-  </si>
-  <si>
-    <t>AI전화</t>
-  </si>
-  <si>
-    <t>인공지능직업</t>
-  </si>
-  <si>
-    <t>데이터분석교육</t>
-  </si>
-  <si>
-    <t>인공지능기술</t>
-  </si>
-  <si>
-    <t>문서작성AI</t>
-  </si>
-  <si>
-    <t>R언어</t>
-  </si>
-  <si>
-    <t>머신러닝알고리즘</t>
-  </si>
-  <si>
-    <t>앱시트</t>
-  </si>
-  <si>
-    <t>해치풀</t>
-  </si>
-  <si>
-    <t>HATCHFUL</t>
-  </si>
-  <si>
-    <t>APPSHEET</t>
-  </si>
-  <si>
-    <t>테블로</t>
-  </si>
-  <si>
-    <t>인공지능관련직업</t>
-  </si>
-  <si>
-    <t>AI시험</t>
-  </si>
-  <si>
-    <t>AI요약</t>
-  </si>
-  <si>
-    <t>카카오톡챗봇만들기</t>
-  </si>
-  <si>
-    <t>1인기업</t>
-  </si>
-  <si>
-    <t>R프로그램</t>
-  </si>
-  <si>
-    <t>삼성코딩테스트</t>
-  </si>
-  <si>
-    <t>NCS교육</t>
+    <t>애플코딩</t>
+  </si>
+  <si>
+    <t>온라인마케터</t>
+  </si>
+  <si>
+    <t>재직자교육</t>
   </si>
   <si>
     <t>GPU서버</t>
   </si>
   <si>
-    <t>웹3.0</t>
-  </si>
-  <si>
-    <t>대화형인공지능</t>
-  </si>
-  <si>
-    <t>클로바케어콜</t>
-  </si>
-  <si>
-    <t>달리AI</t>
-  </si>
-  <si>
-    <t>마이크로소프트BING</t>
-  </si>
-  <si>
-    <t>마이크로소프트COPILOT</t>
-  </si>
-  <si>
-    <t>미드저니AI</t>
-  </si>
-  <si>
-    <t>빙AI</t>
-  </si>
-  <si>
-    <t>CHATGPT요금제</t>
-  </si>
-  <si>
-    <t>GITHUBCOPILOT</t>
-  </si>
-  <si>
-    <t>HYPERCLOVAX</t>
-  </si>
-  <si>
-    <t>LUMEN5</t>
-  </si>
-  <si>
-    <t>이미지생성형AI</t>
-  </si>
-  <si>
-    <t>MSCOPILOT</t>
-  </si>
-  <si>
-    <t>디지털문해교육</t>
-  </si>
-  <si>
-    <t>카톡챗봇</t>
+    <t>교육컨설팅</t>
+  </si>
+  <si>
+    <t>멀티미디어콘텐츠자격증</t>
   </si>
   <si>
     <t>AI필터</t>
   </si>
   <si>
-    <t>MICROSOFTCOPILOT</t>
-  </si>
-  <si>
-    <t>인공지능대화</t>
-  </si>
-  <si>
-    <t>AI사진만들기</t>
-  </si>
-  <si>
-    <t>코파일럿PC</t>
-  </si>
-  <si>
-    <t>병원키오스크</t>
-  </si>
-  <si>
-    <t>ZEPETO</t>
-  </si>
-  <si>
-    <t>SLLM</t>
-  </si>
-  <si>
-    <t>쳇봇</t>
+    <t>채팅상담</t>
   </si>
   <si>
     <t>카카오톡챗봇</t>
   </si>
   <si>
-    <t>무료챗봇</t>
-  </si>
-  <si>
-    <t>스마트폰교육</t>
-  </si>
-  <si>
-    <t>채팅상담</t>
-  </si>
-  <si>
-    <t>파이션</t>
-  </si>
-  <si>
-    <t>AI그림무료</t>
-  </si>
-  <si>
-    <t>파이썬강의</t>
-  </si>
-  <si>
-    <t>생성형AI이미지</t>
-  </si>
-  <si>
-    <t>블록체인전문가</t>
-  </si>
-  <si>
-    <t>교육사이트</t>
-  </si>
-  <si>
-    <t>파이슨</t>
-  </si>
-  <si>
-    <t>SSCI</t>
-  </si>
-  <si>
-    <t>로봇코딩</t>
-  </si>
-  <si>
-    <t>파이썬크롤링</t>
+    <t>텔레그램봇</t>
+  </si>
+  <si>
+    <t>오픈채팅봇</t>
+  </si>
+  <si>
+    <t>IT교육</t>
   </si>
   <si>
     <t>카카오챗봇</t>
   </si>
   <si>
-    <t>요즘뜨는직업</t>
-  </si>
-  <si>
-    <t>AI봇</t>
-  </si>
-  <si>
-    <t>한글AI</t>
-  </si>
-  <si>
-    <t>키오스크지원사업</t>
-  </si>
-  <si>
-    <t>AI로봇가격</t>
-  </si>
-  <si>
-    <t>데이터과학자</t>
-  </si>
-  <si>
-    <t>DEEPLEARNING</t>
-  </si>
-  <si>
-    <t>트렌드분석</t>
-  </si>
-  <si>
-    <t>감성분석</t>
-  </si>
-  <si>
-    <t>일러스트AI</t>
-  </si>
-  <si>
-    <t>블로그자동화</t>
-  </si>
-  <si>
-    <t>챗봇종류</t>
-  </si>
-  <si>
-    <t>GPT스토어</t>
-  </si>
-  <si>
-    <t>AI챗봇종류</t>
-  </si>
-  <si>
-    <t>RPA프로그램</t>
-  </si>
-  <si>
-    <t>IT교육</t>
-  </si>
-  <si>
-    <t>다큐브</t>
-  </si>
-  <si>
-    <t>고객응대</t>
-  </si>
-  <si>
-    <t>블로그글쓰기알바</t>
-  </si>
-  <si>
-    <t>AI세미나</t>
-  </si>
-  <si>
-    <t>안내로봇</t>
-  </si>
-  <si>
-    <t>빅데이터활용</t>
-  </si>
-  <si>
-    <t>디지털문해교육사</t>
-  </si>
-  <si>
-    <t>카카오I오픈빌더</t>
-  </si>
-  <si>
-    <t>ROS2</t>
-  </si>
-  <si>
-    <t>SW코딩자격</t>
-  </si>
-  <si>
-    <t>포화도 30%</t>
-  </si>
-  <si>
-    <t>풀스택개발자</t>
-  </si>
-  <si>
-    <t>데이터웨어하우스</t>
-  </si>
-  <si>
-    <t>AI모델생성</t>
+    <t>게임원화가</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -894,6 +867,14 @@
       <charset val="129"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="8"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
@@ -901,12 +882,17 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -933,16 +919,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="나쁨" xfId="1" builtinId="27"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1243,15 +1234,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G265"/>
+  <dimension ref="A1:G256"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="F163" sqref="F163:F170"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.875" bestFit="1" customWidth="1"/>
@@ -1283,3615 +1274,3579 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B2">
-        <v>160</v>
-      </c>
-      <c r="C2">
-        <v>530</v>
-      </c>
-      <c r="D2">
-        <v>690</v>
-      </c>
-      <c r="E2">
+    <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B2" s="2">
+        <v>180</v>
+      </c>
+      <c r="C2" s="2">
+        <v>550</v>
+      </c>
+      <c r="D2" s="2">
+        <v>730</v>
+      </c>
+      <c r="E2" s="2">
         <v>3.4</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="2">
         <v>0.5</v>
       </c>
-      <c r="G2" t="s">
-        <v>43</v>
+      <c r="G2" s="2" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>113</v>
+        <v>236</v>
       </c>
       <c r="B3">
-        <v>110</v>
+        <v>420</v>
       </c>
       <c r="C3">
-        <v>220</v>
+        <v>460</v>
       </c>
       <c r="D3">
-        <v>330</v>
+        <v>880</v>
       </c>
       <c r="E3">
-        <v>2.7</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="F3">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="G3" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>227</v>
+        <v>178</v>
       </c>
       <c r="B4">
-        <v>530</v>
+        <v>120</v>
       </c>
       <c r="C4">
-        <v>270</v>
+        <v>240</v>
       </c>
       <c r="D4">
-        <v>800</v>
+        <v>360</v>
       </c>
       <c r="E4">
-        <v>7.6</v>
+        <v>2.7</v>
       </c>
       <c r="F4">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="G4" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B5">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="C5">
-        <v>80</v>
+        <v>190</v>
       </c>
       <c r="D5">
-        <v>300</v>
+        <v>390</v>
       </c>
       <c r="E5">
+        <v>3.8</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="B6" s="2">
+        <v>230</v>
+      </c>
+      <c r="C6" s="2">
+        <v>90</v>
+      </c>
+      <c r="D6" s="2">
+        <v>320</v>
+      </c>
+      <c r="E6" s="2">
         <v>3.5</v>
       </c>
-      <c r="F5">
-        <v>1.2</v>
-      </c>
-      <c r="G5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>277</v>
-      </c>
-      <c r="B6">
-        <v>260</v>
-      </c>
-      <c r="C6">
-        <v>100</v>
-      </c>
-      <c r="D6">
-        <v>360</v>
-      </c>
-      <c r="E6">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="F6">
-        <v>1.2</v>
-      </c>
-      <c r="G6" t="s">
-        <v>43</v>
+      <c r="F6" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>231</v>
+        <v>124</v>
       </c>
       <c r="B7">
-        <v>690</v>
+        <v>380</v>
       </c>
       <c r="C7">
-        <v>250</v>
+        <v>280</v>
       </c>
       <c r="D7">
-        <v>940</v>
+        <v>660</v>
       </c>
       <c r="E7">
-        <v>13.2</v>
+        <v>10.6</v>
       </c>
       <c r="F7">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="G7" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>200</v>
+        <v>237</v>
       </c>
       <c r="B8">
-        <v>550</v>
+        <v>330</v>
       </c>
       <c r="C8">
-        <v>390</v>
+        <v>170</v>
       </c>
       <c r="D8">
-        <v>940</v>
+        <v>500</v>
       </c>
       <c r="E8">
-        <v>14.4</v>
+        <v>11.5</v>
       </c>
       <c r="F8">
-        <v>1.5</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="G8" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>204</v>
+        <v>145</v>
       </c>
       <c r="B9">
-        <v>400</v>
+        <v>170</v>
       </c>
       <c r="C9">
+        <v>140</v>
+      </c>
+      <c r="D9">
         <v>310</v>
       </c>
-      <c r="D9">
-        <v>710</v>
-      </c>
       <c r="E9">
-        <v>10.5</v>
+        <v>8.1</v>
       </c>
       <c r="F9">
-        <v>1.5</v>
+        <v>2.6</v>
       </c>
       <c r="G9" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>172</v>
+        <v>86</v>
       </c>
       <c r="B10">
-        <v>190</v>
+        <v>160</v>
       </c>
       <c r="C10">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="D10">
-        <v>310</v>
+        <v>230</v>
       </c>
       <c r="E10">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="F10">
-        <v>1.6</v>
+        <v>2.8</v>
       </c>
       <c r="G10" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>162</v>
+        <v>52</v>
       </c>
       <c r="B11">
-        <v>390</v>
+        <v>140</v>
       </c>
       <c r="C11">
-        <v>330</v>
+        <v>550</v>
       </c>
       <c r="D11">
-        <v>720</v>
+        <v>690</v>
       </c>
       <c r="E11">
-        <v>12.2</v>
+        <v>27.5</v>
       </c>
       <c r="F11">
-        <v>1.7</v>
+        <v>4</v>
       </c>
       <c r="G11" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>201</v>
+        <v>87</v>
       </c>
       <c r="B12">
-        <v>150</v>
+        <v>190</v>
       </c>
       <c r="C12">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="D12">
-        <v>220</v>
+        <v>310</v>
       </c>
       <c r="E12">
-        <v>4.4000000000000004</v>
+        <v>12.3</v>
       </c>
       <c r="F12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G12" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>223</v>
+        <v>67</v>
       </c>
       <c r="B13">
-        <v>620</v>
+        <v>520</v>
       </c>
       <c r="C13">
-        <v>200</v>
+        <v>480</v>
       </c>
       <c r="D13">
-        <v>820</v>
+        <v>1000</v>
       </c>
       <c r="E13">
-        <v>16.7</v>
+        <v>40.5</v>
       </c>
       <c r="F13">
-        <v>2</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="G13" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>276</v>
+        <v>235</v>
       </c>
       <c r="B14">
-        <v>70</v>
+        <v>170</v>
       </c>
       <c r="C14">
-        <v>890</v>
+        <v>130</v>
       </c>
       <c r="D14">
-        <v>960</v>
+        <v>300</v>
       </c>
       <c r="E14">
-        <v>22.1</v>
+        <v>12.6</v>
       </c>
       <c r="F14">
-        <v>2.2999999999999998</v>
+        <v>4.2</v>
       </c>
       <c r="G14" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>202</v>
+        <v>70</v>
       </c>
       <c r="B15">
-        <v>180</v>
+        <v>260</v>
       </c>
       <c r="C15">
-        <v>90</v>
+        <v>200</v>
       </c>
       <c r="D15">
-        <v>270</v>
+        <v>460</v>
       </c>
       <c r="E15">
-        <v>6.5</v>
+        <v>26.1</v>
       </c>
       <c r="F15">
-        <v>2.4</v>
+        <v>5.7</v>
       </c>
       <c r="G15" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="B16">
-        <v>220</v>
+        <v>370</v>
       </c>
       <c r="C16">
-        <v>220</v>
+        <v>180</v>
       </c>
       <c r="D16">
-        <v>440</v>
+        <v>550</v>
       </c>
       <c r="E16">
-        <v>13</v>
+        <v>35.700000000000003</v>
       </c>
       <c r="F16">
-        <v>3</v>
+        <v>6.5</v>
       </c>
       <c r="G16" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>203</v>
+        <v>129</v>
       </c>
       <c r="B17">
-        <v>210</v>
+        <v>170</v>
       </c>
       <c r="C17">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="D17">
-        <v>340</v>
+        <v>270</v>
       </c>
       <c r="E17">
-        <v>12.5</v>
+        <v>23.3</v>
       </c>
       <c r="F17">
-        <v>3.7</v>
+        <v>8.6</v>
       </c>
       <c r="G17" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>60</v>
+        <v>198</v>
       </c>
       <c r="B18">
-        <v>140</v>
+        <v>350</v>
       </c>
       <c r="C18">
-        <v>510</v>
+        <v>240</v>
       </c>
       <c r="D18">
-        <v>650</v>
+        <v>590</v>
       </c>
       <c r="E18">
-        <v>27.8</v>
+        <v>61.2</v>
       </c>
       <c r="F18">
-        <v>4.3</v>
+        <v>10.4</v>
       </c>
       <c r="G18" t="s">
-        <v>43</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="B19">
-        <v>270</v>
+        <v>330</v>
       </c>
       <c r="C19">
-        <v>220</v>
+        <v>360</v>
       </c>
       <c r="D19">
-        <v>490</v>
+        <v>690</v>
       </c>
       <c r="E19">
-        <v>26.3</v>
+        <v>76.900000000000006</v>
       </c>
       <c r="F19">
-        <v>5.4</v>
+        <v>11.1</v>
       </c>
       <c r="G19" t="s">
-        <v>43</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>163</v>
+        <v>271</v>
       </c>
       <c r="B20">
-        <v>360</v>
+        <v>230</v>
       </c>
       <c r="C20">
-        <v>180</v>
+        <v>540</v>
       </c>
       <c r="D20">
-        <v>540</v>
+        <v>770</v>
       </c>
       <c r="E20">
-        <v>34.9</v>
+        <v>88.2</v>
       </c>
       <c r="F20">
-        <v>6.5</v>
+        <v>11.5</v>
       </c>
       <c r="G20" t="s">
-        <v>43</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>216</v>
+        <v>84</v>
       </c>
       <c r="B21">
-        <v>160</v>
+        <v>530</v>
       </c>
       <c r="C21">
-        <v>100</v>
+        <v>390</v>
       </c>
       <c r="D21">
-        <v>260</v>
+        <v>920</v>
       </c>
       <c r="E21">
-        <v>17.3</v>
+        <v>111.1</v>
       </c>
       <c r="F21">
-        <v>6.7</v>
+        <v>12.1</v>
       </c>
       <c r="G21" t="s">
-        <v>43</v>
+        <v>85</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>159</v>
+        <v>227</v>
       </c>
       <c r="B22">
-        <v>190</v>
+        <v>220</v>
       </c>
       <c r="C22">
-        <v>60</v>
+        <v>240</v>
       </c>
       <c r="D22">
-        <v>250</v>
+        <v>460</v>
       </c>
       <c r="E22">
-        <v>18</v>
+        <v>75</v>
       </c>
       <c r="F22">
-        <v>7.2</v>
+        <v>16.3</v>
       </c>
       <c r="G22" t="s">
-        <v>43</v>
+        <v>85</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>86</v>
+        <v>243</v>
       </c>
       <c r="B23">
-        <v>160</v>
+        <v>430</v>
       </c>
       <c r="C23">
-        <v>90</v>
+        <v>310</v>
       </c>
       <c r="D23">
-        <v>250</v>
+        <v>740</v>
       </c>
       <c r="E23">
-        <v>22.4</v>
+        <v>125</v>
       </c>
       <c r="F23">
-        <v>9</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="G23" t="s">
-        <v>43</v>
+        <v>85</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>144</v>
+        <v>224</v>
       </c>
       <c r="B24">
-        <v>190</v>
+        <v>80</v>
       </c>
       <c r="C24">
-        <v>180</v>
+        <v>130</v>
       </c>
       <c r="D24">
-        <v>370</v>
+        <v>210</v>
       </c>
       <c r="E24">
-        <v>34.5</v>
+        <v>36.1</v>
       </c>
       <c r="F24">
-        <v>9.3000000000000007</v>
+        <v>17.2</v>
       </c>
       <c r="G24" t="s">
-        <v>43</v>
+        <v>85</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>250</v>
+        <v>97</v>
       </c>
       <c r="B25">
-        <v>370</v>
+        <v>240</v>
       </c>
       <c r="C25">
-        <v>250</v>
+        <v>320</v>
       </c>
       <c r="D25">
-        <v>620</v>
+        <v>560</v>
       </c>
       <c r="E25">
-        <v>61.2</v>
+        <v>103.4</v>
       </c>
       <c r="F25">
-        <v>9.9</v>
+        <v>18.5</v>
       </c>
       <c r="G25" t="s">
-        <v>43</v>
+        <v>85</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>30</v>
+        <v>234</v>
       </c>
       <c r="B26">
-        <v>350</v>
+        <v>220</v>
       </c>
       <c r="C26">
-        <v>370</v>
+        <v>190</v>
       </c>
       <c r="D26">
-        <v>720</v>
+        <v>410</v>
       </c>
       <c r="E26">
-        <v>78.900000000000006</v>
+        <v>81.099999999999994</v>
       </c>
       <c r="F26">
-        <v>11</v>
+        <v>19.8</v>
       </c>
       <c r="G26" t="s">
-        <v>31</v>
+        <v>85</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>175</v>
+        <v>142</v>
       </c>
       <c r="B27">
-        <v>220</v>
+        <v>190</v>
       </c>
       <c r="C27">
-        <v>550</v>
+        <v>80</v>
       </c>
       <c r="D27">
-        <v>770</v>
+        <v>270</v>
       </c>
       <c r="E27">
-        <v>100</v>
+        <v>58.8</v>
       </c>
       <c r="F27">
-        <v>13</v>
+        <v>21.8</v>
       </c>
       <c r="G27" t="s">
-        <v>31</v>
+        <v>143</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>170</v>
+        <v>259</v>
       </c>
       <c r="B28">
-        <v>480</v>
+        <v>150</v>
       </c>
       <c r="C28">
-        <v>130</v>
+        <v>410</v>
       </c>
       <c r="D28">
-        <v>610</v>
+        <v>560</v>
       </c>
       <c r="E28">
-        <v>81.099999999999994</v>
+        <v>150</v>
       </c>
       <c r="F28">
-        <v>13.3</v>
+        <v>26.8</v>
       </c>
       <c r="G28" t="s">
-        <v>31</v>
+        <v>143</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>249</v>
+        <v>266</v>
       </c>
       <c r="B29">
-        <v>110</v>
+        <v>170</v>
       </c>
       <c r="C29">
-        <v>210</v>
+        <v>270</v>
       </c>
       <c r="D29">
-        <v>320</v>
+        <v>440</v>
       </c>
       <c r="E29">
-        <v>44.1</v>
+        <v>136.4</v>
       </c>
       <c r="F29">
-        <v>13.8</v>
+        <v>31</v>
       </c>
       <c r="G29" t="s">
-        <v>31</v>
+        <v>205</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>260</v>
+        <v>204</v>
       </c>
       <c r="B30">
-        <v>240</v>
+        <v>150</v>
       </c>
       <c r="C30">
-        <v>260</v>
+        <v>640</v>
       </c>
       <c r="D30">
-        <v>500</v>
+        <v>790</v>
       </c>
       <c r="E30">
-        <v>73.2</v>
+        <v>250</v>
       </c>
       <c r="F30">
-        <v>14.6</v>
+        <v>31.6</v>
       </c>
       <c r="G30" t="s">
-        <v>31</v>
+        <v>205</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>237</v>
+        <v>18</v>
       </c>
       <c r="B31">
-        <v>480</v>
+        <v>230</v>
       </c>
       <c r="C31">
-        <v>360</v>
+        <v>340</v>
       </c>
       <c r="D31">
-        <v>840</v>
+        <v>570</v>
       </c>
       <c r="E31">
-        <v>130.4</v>
+        <v>230.8</v>
       </c>
       <c r="F31">
-        <v>15.5</v>
+        <v>40.5</v>
       </c>
       <c r="G31" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>236</v>
+        <v>60</v>
       </c>
       <c r="B32">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="C32">
-        <v>360</v>
+        <v>300</v>
       </c>
       <c r="D32">
-        <v>620</v>
+        <v>570</v>
       </c>
       <c r="E32">
-        <v>111.1</v>
+        <v>230.8</v>
       </c>
       <c r="F32">
-        <v>17.899999999999999</v>
+        <v>40.5</v>
       </c>
       <c r="G32" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>208</v>
+        <v>7</v>
       </c>
       <c r="B33">
-        <v>230</v>
+        <v>300</v>
       </c>
       <c r="C33">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="D33">
-        <v>440</v>
+        <v>520</v>
       </c>
       <c r="E33">
-        <v>83.3</v>
+        <v>230.8</v>
       </c>
       <c r="F33">
-        <v>18.899999999999999</v>
+        <v>44.4</v>
       </c>
       <c r="G33" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B34">
-        <v>160</v>
+        <v>350</v>
       </c>
       <c r="C34">
-        <v>470</v>
+        <v>320</v>
       </c>
       <c r="D34">
-        <v>630</v>
+        <v>670</v>
       </c>
       <c r="E34">
-        <v>125</v>
+        <v>300</v>
       </c>
       <c r="F34">
-        <v>19.8</v>
+        <v>44.8</v>
       </c>
       <c r="G34" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>107</v>
+        <v>191</v>
       </c>
       <c r="B35">
-        <v>100</v>
+        <v>350</v>
       </c>
       <c r="C35">
+        <v>250</v>
+      </c>
+      <c r="D35">
+        <v>600</v>
+      </c>
+      <c r="E35">
         <v>300</v>
       </c>
-      <c r="D35">
-        <v>400</v>
-      </c>
-      <c r="E35">
-        <v>96.8</v>
-      </c>
       <c r="F35">
-        <v>24.2</v>
+        <v>50</v>
       </c>
       <c r="G35" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>233</v>
+        <v>144</v>
       </c>
       <c r="B36">
-        <v>150</v>
+        <v>190</v>
       </c>
       <c r="C36">
-        <v>580</v>
+        <v>50</v>
       </c>
       <c r="D36">
-        <v>730</v>
+        <v>240</v>
       </c>
       <c r="E36">
-        <v>187.5</v>
+        <v>125</v>
       </c>
       <c r="F36">
-        <v>25.7</v>
+        <v>52.1</v>
       </c>
       <c r="G36" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>225</v>
+        <v>201</v>
       </c>
       <c r="B37">
-        <v>470</v>
+        <v>240</v>
       </c>
       <c r="C37">
-        <v>220</v>
+        <v>130</v>
       </c>
       <c r="D37">
-        <v>690</v>
+        <v>370</v>
       </c>
       <c r="E37">
-        <v>187.5</v>
+        <v>214.3</v>
       </c>
       <c r="F37">
-        <v>27.2</v>
+        <v>57.9</v>
       </c>
       <c r="G37" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="B38">
-        <v>270</v>
+        <v>80</v>
       </c>
       <c r="C38">
-        <v>500</v>
+        <v>150</v>
       </c>
       <c r="D38">
-        <v>770</v>
+        <v>230</v>
       </c>
       <c r="E38">
-        <v>230.8</v>
+        <v>136.4</v>
       </c>
       <c r="F38">
-        <v>30</v>
+        <v>59.3</v>
       </c>
       <c r="G38" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>282</v>
+        <v>26</v>
       </c>
       <c r="B39">
-        <v>230</v>
+        <v>580</v>
       </c>
       <c r="C39">
-        <v>300</v>
+        <v>370</v>
       </c>
       <c r="D39">
-        <v>530</v>
+        <v>950</v>
       </c>
       <c r="E39">
-        <v>187.5</v>
+        <v>600</v>
       </c>
       <c r="F39">
-        <v>35.4</v>
+        <v>63.2</v>
       </c>
       <c r="G39" t="s">
-        <v>280</v>
+        <v>27</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>279</v>
+        <v>173</v>
       </c>
       <c r="B40">
-        <v>190</v>
+        <v>230</v>
       </c>
       <c r="C40">
-        <v>190</v>
+        <v>130</v>
       </c>
       <c r="D40">
-        <v>380</v>
+        <v>360</v>
       </c>
       <c r="E40">
-        <v>142.9</v>
+        <v>230.8</v>
       </c>
       <c r="F40">
-        <v>37.6</v>
+        <v>64.099999999999994</v>
       </c>
       <c r="G40" t="s">
-        <v>280</v>
+        <v>27</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B41">
-        <v>370</v>
+        <v>260</v>
       </c>
       <c r="C41">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="D41">
-        <v>720</v>
+        <v>760</v>
       </c>
       <c r="E41">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="F41">
-        <v>41.7</v>
+        <v>65.8</v>
       </c>
       <c r="G41" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>160</v>
+        <v>57</v>
       </c>
       <c r="B42">
-        <v>130</v>
+        <v>210</v>
       </c>
       <c r="C42">
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="D42">
-        <v>200</v>
+        <v>320</v>
       </c>
       <c r="E42">
-        <v>88.2</v>
+        <v>214.3</v>
       </c>
       <c r="F42">
-        <v>44.1</v>
+        <v>67</v>
       </c>
       <c r="G42" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>167</v>
+        <v>98</v>
       </c>
       <c r="B43">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="C43">
-        <v>270</v>
+        <v>140</v>
       </c>
       <c r="D43">
-        <v>670</v>
+        <v>240</v>
       </c>
       <c r="E43">
-        <v>300</v>
+        <v>176.5</v>
       </c>
       <c r="F43">
-        <v>44.8</v>
+        <v>73.5</v>
       </c>
       <c r="G43" t="s">
-        <v>26</v>
+        <v>92</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>190</v>
+        <v>91</v>
       </c>
       <c r="B44">
-        <v>260</v>
+        <v>280</v>
       </c>
       <c r="C44">
-        <v>130</v>
+        <v>380</v>
       </c>
       <c r="D44">
-        <v>390</v>
+        <v>660</v>
       </c>
       <c r="E44">
-        <v>176.5</v>
+        <v>500</v>
       </c>
       <c r="F44">
-        <v>45.2</v>
+        <v>75.8</v>
       </c>
       <c r="G44" t="s">
-        <v>26</v>
+        <v>92</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>25</v>
+        <v>249</v>
       </c>
       <c r="B45">
-        <v>260</v>
+        <v>620</v>
       </c>
       <c r="C45">
-        <v>370</v>
+        <v>330</v>
       </c>
       <c r="D45">
-        <v>630</v>
+        <v>950</v>
       </c>
       <c r="E45">
-        <v>300</v>
+        <v>750</v>
       </c>
       <c r="F45">
-        <v>47.6</v>
+        <v>78.900000000000006</v>
       </c>
       <c r="G45" t="s">
-        <v>26</v>
+        <v>92</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
       <c r="B46">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="C46">
-        <v>50</v>
+        <v>700</v>
       </c>
       <c r="D46">
-        <v>250</v>
+        <v>910</v>
       </c>
       <c r="E46">
-        <v>120</v>
+        <v>750</v>
       </c>
       <c r="F46">
-        <v>48</v>
+        <v>82.4</v>
       </c>
       <c r="G46" t="s">
-        <v>26</v>
+        <v>209</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>118</v>
+        <v>270</v>
       </c>
       <c r="B47">
-        <v>380</v>
+        <v>120</v>
       </c>
       <c r="C47">
-        <v>310</v>
+        <v>170</v>
       </c>
       <c r="D47">
-        <v>690</v>
+        <v>290</v>
       </c>
       <c r="E47">
-        <v>333.3</v>
+        <v>250</v>
       </c>
       <c r="F47">
-        <v>48.3</v>
+        <v>86.2</v>
       </c>
       <c r="G47" t="s">
-        <v>26</v>
+        <v>209</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>214</v>
+        <v>73</v>
       </c>
       <c r="B48">
-        <v>270</v>
+        <v>110</v>
       </c>
       <c r="C48">
-        <v>610</v>
+        <v>190</v>
       </c>
       <c r="D48">
-        <v>880</v>
+        <v>300</v>
       </c>
       <c r="E48">
-        <v>428.6</v>
+        <v>272.7</v>
       </c>
       <c r="F48">
-        <v>48.7</v>
+        <v>90.9</v>
       </c>
       <c r="G48" t="s">
-        <v>26</v>
+        <v>74</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="B49">
-        <v>400</v>
+        <v>90</v>
       </c>
       <c r="C49">
-        <v>270</v>
+        <v>360</v>
       </c>
       <c r="D49">
-        <v>670</v>
+        <v>450</v>
       </c>
       <c r="E49">
-        <v>333.3</v>
+        <v>428.6</v>
       </c>
       <c r="F49">
-        <v>49.8</v>
+        <v>95.2</v>
       </c>
       <c r="G49" t="s">
-        <v>26</v>
+        <v>74</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>7</v>
+        <v>206</v>
       </c>
       <c r="B50">
-        <v>310</v>
+        <v>50</v>
       </c>
       <c r="C50">
         <v>230</v>
       </c>
       <c r="D50">
-        <v>540</v>
+        <v>280</v>
       </c>
       <c r="E50">
         <v>272.7</v>
       </c>
       <c r="F50">
-        <v>50.5</v>
+        <v>97.4</v>
       </c>
       <c r="G50" t="s">
-        <v>8</v>
+        <v>74</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>268</v>
+        <v>233</v>
       </c>
       <c r="B51">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="C51">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="D51">
-        <v>370</v>
+        <v>340</v>
       </c>
       <c r="E51">
-        <v>187.5</v>
+        <v>333.3</v>
       </c>
       <c r="F51">
-        <v>50.7</v>
+        <v>98</v>
       </c>
       <c r="G51" t="s">
-        <v>8</v>
+        <v>74</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>176</v>
+        <v>274</v>
       </c>
       <c r="B52">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="C52">
-        <v>150</v>
+        <v>330</v>
       </c>
       <c r="D52">
-        <v>270</v>
+        <v>460</v>
       </c>
       <c r="E52">
-        <v>166.7</v>
+        <v>500</v>
       </c>
       <c r="F52">
-        <v>61.7</v>
+        <v>108.7</v>
       </c>
       <c r="G52" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>211</v>
+        <v>238</v>
       </c>
       <c r="B53">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="C53">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="D53">
-        <v>370</v>
+        <v>450</v>
       </c>
       <c r="E53">
-        <v>230.8</v>
+        <v>500</v>
       </c>
       <c r="F53">
-        <v>62.4</v>
+        <v>111.1</v>
       </c>
       <c r="G53" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>39</v>
+        <v>245</v>
       </c>
       <c r="B54">
-        <v>240</v>
+        <v>140</v>
       </c>
       <c r="C54">
-        <v>130</v>
+        <v>190</v>
       </c>
       <c r="D54">
-        <v>370</v>
+        <v>330</v>
       </c>
       <c r="E54">
-        <v>250</v>
+        <v>375</v>
       </c>
       <c r="F54">
-        <v>67.599999999999994</v>
+        <v>113.6</v>
       </c>
       <c r="G54" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="B55">
-        <v>330</v>
+        <v>310</v>
       </c>
       <c r="C55">
-        <v>540</v>
+        <v>320</v>
       </c>
       <c r="D55">
-        <v>870</v>
+        <v>630</v>
       </c>
       <c r="E55">
-        <v>600</v>
+        <v>750</v>
       </c>
       <c r="F55">
-        <v>69</v>
+        <v>119</v>
       </c>
       <c r="G55" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>72</v>
+        <v>242</v>
       </c>
       <c r="B56">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="C56">
-        <v>300</v>
+        <v>90</v>
       </c>
       <c r="D56">
-        <v>600</v>
+        <v>210</v>
       </c>
       <c r="E56">
-        <v>428.6</v>
+        <v>250</v>
       </c>
       <c r="F56">
-        <v>71.400000000000006</v>
+        <v>119</v>
       </c>
       <c r="G56" t="s">
-        <v>73</v>
+        <v>13</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>168</v>
+        <v>95</v>
       </c>
       <c r="B57">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="C57">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="D57">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="E57">
-        <v>187.5</v>
+        <v>300</v>
       </c>
       <c r="F57">
-        <v>75</v>
+        <v>125</v>
       </c>
       <c r="G57" t="s">
-        <v>73</v>
+        <v>13</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="B58">
-        <v>290</v>
+        <v>80</v>
       </c>
       <c r="C58">
-        <v>500</v>
+        <v>160</v>
       </c>
       <c r="D58">
-        <v>790</v>
+        <v>240</v>
       </c>
       <c r="E58">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="F58">
-        <v>75.900000000000006</v>
+        <v>125</v>
       </c>
       <c r="G58" t="s">
-        <v>73</v>
+        <v>13</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>222</v>
+        <v>127</v>
       </c>
       <c r="B59">
-        <v>390</v>
+        <v>270</v>
       </c>
       <c r="C59">
-        <v>390</v>
+        <v>530</v>
       </c>
       <c r="D59">
-        <v>780</v>
+        <v>800</v>
       </c>
       <c r="E59">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="F59">
-        <v>76.900000000000006</v>
+        <v>125</v>
       </c>
       <c r="G59" t="s">
-        <v>73</v>
+        <v>13</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>178</v>
+        <v>269</v>
       </c>
       <c r="B60">
-        <v>140</v>
+        <v>420</v>
       </c>
       <c r="C60">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="D60">
-        <v>480</v>
+        <v>770</v>
       </c>
       <c r="E60">
-        <v>375</v>
+        <v>1000</v>
       </c>
       <c r="F60">
-        <v>78.099999999999994</v>
+        <v>129.9</v>
       </c>
       <c r="G60" t="s">
-        <v>73</v>
+        <v>13</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="B61">
-        <v>40</v>
+        <v>210</v>
       </c>
       <c r="C61">
-        <v>210</v>
+        <v>350</v>
       </c>
       <c r="D61">
-        <v>250</v>
+        <v>560</v>
       </c>
       <c r="E61">
-        <v>200</v>
+        <v>750</v>
       </c>
       <c r="F61">
-        <v>80</v>
+        <v>133.9</v>
       </c>
       <c r="G61" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>234</v>
+        <v>137</v>
       </c>
       <c r="B62">
-        <v>190</v>
+        <v>240</v>
       </c>
       <c r="C62">
-        <v>140</v>
+        <v>440</v>
       </c>
       <c r="D62">
-        <v>330</v>
+        <v>680</v>
       </c>
       <c r="E62">
-        <v>272.7</v>
+        <v>1000</v>
       </c>
       <c r="F62">
-        <v>82.6</v>
+        <v>147.1</v>
       </c>
       <c r="G62" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>123</v>
+        <v>12</v>
       </c>
       <c r="B63">
-        <v>230</v>
+        <v>530</v>
       </c>
       <c r="C63">
-        <v>130</v>
+        <v>450</v>
       </c>
       <c r="D63">
-        <v>360</v>
+        <v>980</v>
       </c>
       <c r="E63">
-        <v>300</v>
+        <v>1500</v>
       </c>
       <c r="F63">
-        <v>83.3</v>
+        <v>153.1</v>
       </c>
       <c r="G63" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>239</v>
+        <v>54</v>
       </c>
       <c r="B64">
-        <v>440</v>
+        <v>410</v>
       </c>
       <c r="C64">
-        <v>400</v>
+        <v>540</v>
       </c>
       <c r="D64">
-        <v>840</v>
+        <v>950</v>
       </c>
       <c r="E64">
-        <v>750</v>
+        <v>1500</v>
       </c>
       <c r="F64">
-        <v>89.3</v>
+        <v>157.9</v>
       </c>
       <c r="G64" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>46</v>
+        <v>171</v>
       </c>
       <c r="B65">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="C65">
-        <v>200</v>
+        <v>650</v>
       </c>
       <c r="D65">
-        <v>320</v>
+        <v>950</v>
       </c>
       <c r="E65">
-        <v>300</v>
+        <v>1500</v>
       </c>
       <c r="F65">
-        <v>93.8</v>
+        <v>157.9</v>
       </c>
       <c r="G65" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>173</v>
+        <v>214</v>
       </c>
       <c r="B66">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="C66">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="D66">
-        <v>340</v>
+        <v>270</v>
       </c>
       <c r="E66">
-        <v>333.3</v>
+        <v>428.6</v>
       </c>
       <c r="F66">
-        <v>98</v>
+        <v>158.69999999999999</v>
       </c>
       <c r="G66" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>189</v>
+        <v>20</v>
       </c>
       <c r="B67">
-        <v>530</v>
+        <v>290</v>
       </c>
       <c r="C67">
-        <v>470</v>
+        <v>630</v>
       </c>
       <c r="D67">
-        <v>1000</v>
+        <v>920</v>
       </c>
       <c r="E67">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="F67">
-        <v>100</v>
+        <v>163</v>
       </c>
       <c r="G67" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>165</v>
+        <v>130</v>
       </c>
       <c r="B68">
-        <v>650</v>
+        <v>440</v>
       </c>
       <c r="C68">
-        <v>330</v>
+        <v>460</v>
       </c>
       <c r="D68">
-        <v>980</v>
+        <v>900</v>
       </c>
       <c r="E68">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="F68">
-        <v>102</v>
+        <v>166.7</v>
       </c>
       <c r="G68" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>125</v>
+        <v>202</v>
       </c>
       <c r="B69">
-        <v>290</v>
+        <v>140</v>
       </c>
       <c r="C69">
-        <v>680</v>
+        <v>460</v>
       </c>
       <c r="D69">
-        <v>970</v>
+        <v>600</v>
       </c>
       <c r="E69">
         <v>1000</v>
       </c>
       <c r="F69">
-        <v>103.1</v>
+        <v>166.7</v>
       </c>
       <c r="G69" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>104</v>
+        <v>213</v>
       </c>
       <c r="B70">
-        <v>290</v>
+        <v>270</v>
       </c>
       <c r="C70">
-        <v>290</v>
+        <v>180</v>
       </c>
       <c r="D70">
-        <v>580</v>
+        <v>450</v>
       </c>
       <c r="E70">
-        <v>600</v>
+        <v>750</v>
       </c>
       <c r="F70">
-        <v>103.4</v>
+        <v>166.7</v>
       </c>
       <c r="G70" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>281</v>
+        <v>194</v>
       </c>
       <c r="B71">
-        <v>300</v>
+        <v>230</v>
       </c>
       <c r="C71">
-        <v>420</v>
+        <v>210</v>
       </c>
       <c r="D71">
-        <v>720</v>
+        <v>440</v>
       </c>
       <c r="E71">
         <v>750</v>
       </c>
       <c r="F71">
-        <v>104.2</v>
+        <v>170.5</v>
       </c>
       <c r="G71" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>218</v>
+        <v>128</v>
       </c>
       <c r="B72">
-        <v>130</v>
+        <v>190</v>
       </c>
       <c r="C72">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="D72">
-        <v>230</v>
+        <v>340</v>
       </c>
       <c r="E72">
-        <v>250</v>
+        <v>600</v>
       </c>
       <c r="F72">
-        <v>108.7</v>
+        <v>176.5</v>
       </c>
       <c r="G72" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>267</v>
+        <v>116</v>
       </c>
       <c r="B73">
-        <v>230</v>
+        <v>290</v>
       </c>
       <c r="C73">
-        <v>310</v>
+        <v>270</v>
       </c>
       <c r="D73">
-        <v>540</v>
+        <v>560</v>
       </c>
       <c r="E73">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="F73">
-        <v>111.1</v>
+        <v>178.6</v>
       </c>
       <c r="G73" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>129</v>
+        <v>159</v>
       </c>
       <c r="B74">
-        <v>160</v>
+        <v>50</v>
       </c>
       <c r="C74">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="D74">
-        <v>330</v>
+        <v>200</v>
       </c>
       <c r="E74">
         <v>375</v>
       </c>
       <c r="F74">
-        <v>113.6</v>
+        <v>187.5</v>
       </c>
       <c r="G74" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>254</v>
+        <v>81</v>
       </c>
       <c r="B75">
-        <v>130</v>
+        <v>470</v>
       </c>
       <c r="C75">
-        <v>490</v>
+        <v>320</v>
       </c>
       <c r="D75">
-        <v>620</v>
+        <v>790</v>
       </c>
       <c r="E75">
-        <v>750</v>
+        <v>1500</v>
       </c>
       <c r="F75">
-        <v>121</v>
+        <v>189.9</v>
       </c>
       <c r="G75" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>174</v>
+        <v>246</v>
       </c>
       <c r="B76">
-        <v>90</v>
+        <v>130</v>
       </c>
       <c r="C76">
-        <v>210</v>
+        <v>130</v>
       </c>
       <c r="D76">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="E76">
-        <v>375</v>
+        <v>500</v>
       </c>
       <c r="F76">
-        <v>125</v>
+        <v>192.3</v>
       </c>
       <c r="G76" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>229</v>
+        <v>15</v>
       </c>
       <c r="B77">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C77">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="D77">
-        <v>210</v>
+        <v>250</v>
       </c>
       <c r="E77">
-        <v>272.7</v>
+        <v>500</v>
       </c>
       <c r="F77">
-        <v>129.9</v>
+        <v>200</v>
       </c>
       <c r="G77" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>228</v>
+        <v>50</v>
       </c>
       <c r="B78">
+        <v>120</v>
+      </c>
+      <c r="C78">
         <v>130</v>
       </c>
-      <c r="C78">
-        <v>90</v>
-      </c>
       <c r="D78">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="E78">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="F78">
-        <v>136.4</v>
+        <v>200</v>
       </c>
       <c r="G78" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>121</v>
+        <v>93</v>
       </c>
       <c r="B79">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="C79">
-        <v>450</v>
+        <v>230</v>
       </c>
       <c r="D79">
-        <v>720</v>
+        <v>490</v>
       </c>
       <c r="E79">
         <v>1000</v>
       </c>
       <c r="F79">
-        <v>138.9</v>
+        <v>204.1</v>
       </c>
       <c r="G79" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>252</v>
+        <v>160</v>
       </c>
       <c r="B80">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="C80">
-        <v>70</v>
+        <v>560</v>
       </c>
       <c r="D80">
-        <v>200</v>
+        <v>650</v>
       </c>
       <c r="E80">
-        <v>300</v>
+        <v>1500</v>
       </c>
       <c r="F80">
-        <v>150</v>
+        <v>230.8</v>
       </c>
       <c r="G80" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>82</v>
+        <v>106</v>
       </c>
       <c r="B81">
-        <v>300</v>
+        <v>80</v>
       </c>
       <c r="C81">
-        <v>680</v>
+        <v>130</v>
       </c>
       <c r="D81">
-        <v>980</v>
+        <v>210</v>
       </c>
       <c r="E81">
-        <v>1500</v>
+        <v>500</v>
       </c>
       <c r="F81">
-        <v>153.1</v>
+        <v>238.1</v>
       </c>
       <c r="G81" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>108</v>
+        <v>42</v>
       </c>
       <c r="B82">
-        <v>460</v>
+        <v>60</v>
       </c>
       <c r="C82">
+        <v>140</v>
+      </c>
+      <c r="D82">
+        <v>200</v>
+      </c>
+      <c r="E82">
         <v>500</v>
       </c>
-      <c r="D82">
-        <v>960</v>
-      </c>
-      <c r="E82">
-        <v>1500</v>
-      </c>
       <c r="F82">
-        <v>156.19999999999999</v>
+        <v>250</v>
       </c>
       <c r="G82" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>124</v>
+        <v>177</v>
       </c>
       <c r="B83">
-        <v>330</v>
+        <v>30</v>
       </c>
       <c r="C83">
-        <v>560</v>
+        <v>170</v>
       </c>
       <c r="D83">
-        <v>890</v>
+        <v>200</v>
       </c>
       <c r="E83">
-        <v>1500</v>
+        <v>500</v>
       </c>
       <c r="F83">
-        <v>168.5</v>
+        <v>250</v>
       </c>
       <c r="G83" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="B84">
-        <v>210</v>
+        <v>160</v>
       </c>
       <c r="C84">
-        <v>370</v>
+        <v>230</v>
       </c>
       <c r="D84">
-        <v>580</v>
+        <v>390</v>
       </c>
       <c r="E84">
         <v>1000</v>
       </c>
       <c r="F84">
-        <v>172.4</v>
+        <v>256.39999999999998</v>
       </c>
       <c r="G84" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>151</v>
+        <v>207</v>
       </c>
       <c r="B85">
-        <v>390</v>
+        <v>340</v>
       </c>
       <c r="C85">
-        <v>140</v>
+        <v>240</v>
       </c>
       <c r="D85">
-        <v>530</v>
+        <v>580</v>
       </c>
       <c r="E85">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="F85">
-        <v>188.7</v>
+        <v>258.60000000000002</v>
       </c>
       <c r="G85" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="B86">
         <v>130</v>
       </c>
       <c r="C86">
-        <v>150</v>
+        <v>220</v>
       </c>
       <c r="D86">
-        <v>280</v>
+        <v>350</v>
       </c>
       <c r="E86">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="F86">
-        <v>214.3</v>
+        <v>285.7</v>
       </c>
       <c r="G86" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>100</v>
+        <v>239</v>
       </c>
       <c r="B87">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="C87">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="D87">
-        <v>280</v>
+        <v>250</v>
       </c>
       <c r="E87">
-        <v>600</v>
+        <v>750</v>
       </c>
       <c r="F87">
-        <v>214.3</v>
+        <v>300</v>
       </c>
       <c r="G87" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>127</v>
+        <v>90</v>
       </c>
       <c r="B88">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="C88">
-        <v>610</v>
+        <v>130</v>
       </c>
       <c r="D88">
-        <v>700</v>
+        <v>240</v>
       </c>
       <c r="E88">
-        <v>1500</v>
+        <v>750</v>
       </c>
       <c r="F88">
-        <v>214.3</v>
+        <v>312.5</v>
       </c>
       <c r="G88" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>155</v>
+        <v>115</v>
       </c>
       <c r="B89">
-        <v>80</v>
+        <v>530</v>
       </c>
       <c r="C89">
-        <v>190</v>
+        <v>430</v>
       </c>
       <c r="D89">
-        <v>270</v>
+        <v>960</v>
       </c>
       <c r="E89">
-        <v>600</v>
+        <v>3000</v>
       </c>
       <c r="F89">
-        <v>222.2</v>
+        <v>312.5</v>
       </c>
       <c r="G89" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>215</v>
+        <v>77</v>
       </c>
       <c r="B90">
-        <v>210</v>
+        <v>360</v>
       </c>
       <c r="C90">
-        <v>460</v>
+        <v>580</v>
       </c>
       <c r="D90">
-        <v>670</v>
+        <v>940</v>
       </c>
       <c r="E90">
-        <v>1500</v>
+        <v>3000</v>
       </c>
       <c r="F90">
-        <v>223.9</v>
+        <v>319.10000000000002</v>
       </c>
       <c r="G90" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>130</v>
+        <v>225</v>
       </c>
       <c r="B91">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="C91">
-        <v>160</v>
+        <v>440</v>
       </c>
       <c r="D91">
-        <v>210</v>
+        <v>470</v>
       </c>
       <c r="E91">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="F91">
-        <v>238.1</v>
+        <v>319.10000000000002</v>
       </c>
       <c r="G91" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>278</v>
+        <v>195</v>
       </c>
       <c r="B92">
+        <v>200</v>
+      </c>
+      <c r="C92">
         <v>250</v>
       </c>
-      <c r="C92">
-        <v>160</v>
-      </c>
       <c r="D92">
-        <v>410</v>
+        <v>450</v>
       </c>
       <c r="E92">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="F92">
-        <v>243.9</v>
+        <v>333.3</v>
       </c>
       <c r="G92" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>65</v>
+        <v>110</v>
       </c>
       <c r="B93">
-        <v>310</v>
+        <v>340</v>
       </c>
       <c r="C93">
-        <v>290</v>
+        <v>530</v>
       </c>
       <c r="D93">
-        <v>600</v>
+        <v>870</v>
       </c>
       <c r="E93">
-        <v>1500</v>
+        <v>3000</v>
       </c>
       <c r="F93">
-        <v>250</v>
+        <v>344.8</v>
       </c>
       <c r="G93" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>153</v>
+        <v>35</v>
       </c>
       <c r="B94">
-        <v>110</v>
+        <v>310</v>
       </c>
       <c r="C94">
-        <v>90</v>
+        <v>510</v>
       </c>
       <c r="D94">
-        <v>200</v>
+        <v>820</v>
       </c>
       <c r="E94">
-        <v>500</v>
+        <v>3000</v>
       </c>
       <c r="F94">
-        <v>250</v>
+        <v>365.9</v>
       </c>
       <c r="G94" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="B95">
-        <v>420</v>
+        <v>90</v>
       </c>
       <c r="C95">
-        <v>180</v>
+        <v>110</v>
       </c>
       <c r="D95">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="E95">
-        <v>1500</v>
+        <v>750</v>
       </c>
       <c r="F95">
-        <v>250</v>
+        <v>375</v>
       </c>
       <c r="G95" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>112</v>
+        <v>272</v>
       </c>
       <c r="B96">
-        <v>230</v>
+        <v>110</v>
       </c>
       <c r="C96">
-        <v>160</v>
+        <v>90</v>
       </c>
       <c r="D96">
-        <v>390</v>
+        <v>200</v>
       </c>
       <c r="E96">
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="F96">
-        <v>256.39999999999998</v>
+        <v>375</v>
       </c>
       <c r="G96" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>219</v>
+        <v>146</v>
       </c>
       <c r="B97">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="C97">
-        <v>140</v>
+        <v>540</v>
       </c>
       <c r="D97">
-        <v>380</v>
+        <v>740</v>
       </c>
       <c r="E97">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="F97">
-        <v>263.2</v>
+        <v>405.4</v>
       </c>
       <c r="G97" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>265</v>
+        <v>165</v>
       </c>
       <c r="B98">
-        <v>120</v>
+        <v>260</v>
       </c>
       <c r="C98">
-        <v>160</v>
+        <v>460</v>
       </c>
       <c r="D98">
-        <v>280</v>
+        <v>720</v>
       </c>
       <c r="E98">
-        <v>750</v>
+        <v>3000</v>
       </c>
       <c r="F98">
-        <v>267.89999999999998</v>
+        <v>416.7</v>
       </c>
       <c r="G98" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>45</v>
+        <v>190</v>
       </c>
       <c r="B99">
-        <v>140</v>
+        <v>290</v>
       </c>
       <c r="C99">
-        <v>230</v>
+        <v>430</v>
       </c>
       <c r="D99">
-        <v>370</v>
+        <v>720</v>
       </c>
       <c r="E99">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="F99">
-        <v>270.3</v>
+        <v>416.7</v>
       </c>
       <c r="G99" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="B100">
-        <v>330</v>
+        <v>100</v>
       </c>
       <c r="C100">
-        <v>210</v>
+        <v>140</v>
       </c>
       <c r="D100">
-        <v>540</v>
+        <v>240</v>
       </c>
       <c r="E100">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="F100">
-        <v>277.8</v>
+        <v>416.7</v>
       </c>
       <c r="G100" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>85</v>
+        <v>261</v>
       </c>
       <c r="B101">
-        <v>380</v>
+        <v>110</v>
       </c>
       <c r="C101">
-        <v>620</v>
+        <v>120</v>
       </c>
       <c r="D101">
+        <v>230</v>
+      </c>
+      <c r="E101">
         <v>1000</v>
       </c>
-      <c r="E101">
-        <v>3000</v>
-      </c>
       <c r="F101">
-        <v>300</v>
+        <v>434.8</v>
       </c>
       <c r="G101" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>63</v>
+        <v>222</v>
       </c>
       <c r="B102">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="C102">
-        <v>140</v>
+        <v>370</v>
       </c>
       <c r="D102">
-        <v>240</v>
+        <v>670</v>
       </c>
       <c r="E102">
-        <v>750</v>
+        <v>3000</v>
       </c>
       <c r="F102">
-        <v>312.5</v>
+        <v>447.8</v>
       </c>
       <c r="G102" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
+        <v>253</v>
+      </c>
+      <c r="B103">
+        <v>100</v>
+      </c>
+      <c r="C103">
+        <v>120</v>
+      </c>
+      <c r="D103">
         <v>220</v>
       </c>
-      <c r="B103">
-        <v>330</v>
-      </c>
-      <c r="C103">
-        <v>150</v>
-      </c>
-      <c r="D103">
-        <v>480</v>
-      </c>
       <c r="E103">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="F103">
-        <v>312.5</v>
+        <v>454.5</v>
       </c>
       <c r="G103" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>263</v>
+        <v>68</v>
       </c>
       <c r="B104">
-        <v>590</v>
+        <v>190</v>
       </c>
       <c r="C104">
-        <v>360</v>
+        <v>460</v>
       </c>
       <c r="D104">
-        <v>950</v>
+        <v>650</v>
       </c>
       <c r="E104">
         <v>3000</v>
       </c>
       <c r="F104">
-        <v>315.8</v>
+        <v>461.5</v>
       </c>
       <c r="G104" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>185</v>
+        <v>71</v>
       </c>
       <c r="B105">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="C105">
-        <v>630</v>
+        <v>90</v>
       </c>
       <c r="D105">
-        <v>930</v>
+        <v>210</v>
       </c>
       <c r="E105">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="F105">
-        <v>322.60000000000002</v>
+        <v>476.2</v>
       </c>
       <c r="G105" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>251</v>
+        <v>153</v>
       </c>
       <c r="B106">
-        <v>230</v>
+        <v>100</v>
       </c>
       <c r="C106">
-        <v>700</v>
+        <v>110</v>
       </c>
       <c r="D106">
-        <v>930</v>
+        <v>210</v>
       </c>
       <c r="E106">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="F106">
-        <v>322.60000000000002</v>
+        <v>476.2</v>
       </c>
       <c r="G106" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>240</v>
+        <v>221</v>
       </c>
       <c r="B107">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="C107">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="D107">
-        <v>450</v>
+        <v>630</v>
       </c>
       <c r="E107">
-        <v>1500</v>
+        <v>3000</v>
       </c>
       <c r="F107">
-        <v>333.3</v>
+        <v>476.2</v>
       </c>
       <c r="G107" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="B108">
-        <v>520</v>
+        <v>230</v>
       </c>
       <c r="C108">
-        <v>360</v>
+        <v>390</v>
       </c>
       <c r="D108">
-        <v>880</v>
+        <v>620</v>
       </c>
       <c r="E108">
         <v>3000</v>
       </c>
       <c r="F108">
-        <v>340.9</v>
+        <v>483.9</v>
       </c>
       <c r="G108" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>27</v>
+        <v>226</v>
       </c>
       <c r="B109">
-        <v>170</v>
+        <v>50</v>
       </c>
       <c r="C109">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="D109">
-        <v>420</v>
+        <v>310</v>
       </c>
       <c r="E109">
         <v>1500</v>
       </c>
       <c r="F109">
-        <v>357.1</v>
+        <v>483.9</v>
       </c>
       <c r="G109" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>266</v>
+        <v>203</v>
       </c>
       <c r="B110">
-        <v>230</v>
+        <v>100</v>
       </c>
       <c r="C110">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="D110">
-        <v>420</v>
+        <v>300</v>
       </c>
       <c r="E110">
         <v>1500</v>
       </c>
       <c r="F110">
-        <v>357.1</v>
+        <v>500</v>
       </c>
       <c r="G110" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="B111">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="C111">
-        <v>250</v>
+        <v>410</v>
       </c>
       <c r="D111">
-        <v>410</v>
+        <v>560</v>
       </c>
       <c r="E111">
-        <v>1500</v>
+        <v>3000</v>
       </c>
       <c r="F111">
-        <v>365.9</v>
+        <v>535.70000000000005</v>
       </c>
       <c r="G111" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>272</v>
+        <v>252</v>
       </c>
       <c r="B112">
-        <v>110</v>
+        <v>190</v>
       </c>
       <c r="C112">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="D112">
-        <v>410</v>
+        <v>540</v>
       </c>
       <c r="E112">
-        <v>1500</v>
+        <v>3000</v>
       </c>
       <c r="F112">
-        <v>365.9</v>
+        <v>555.6</v>
       </c>
       <c r="G112" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>97</v>
+        <v>254</v>
       </c>
       <c r="B113">
-        <v>170</v>
+        <v>90</v>
       </c>
       <c r="C113">
-        <v>640</v>
+        <v>180</v>
       </c>
       <c r="D113">
-        <v>810</v>
+        <v>270</v>
       </c>
       <c r="E113">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="F113">
-        <v>370.4</v>
+        <v>555.6</v>
       </c>
       <c r="G113" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>131</v>
+        <v>264</v>
       </c>
       <c r="B114">
-        <v>270</v>
+        <v>370</v>
       </c>
       <c r="C114">
-        <v>520</v>
+        <v>160</v>
       </c>
       <c r="D114">
-        <v>790</v>
+        <v>530</v>
       </c>
       <c r="E114">
         <v>3000</v>
       </c>
       <c r="F114">
-        <v>379.7</v>
+        <v>566</v>
       </c>
       <c r="G114" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="B115">
-        <v>170</v>
+        <v>280</v>
       </c>
       <c r="C115">
-        <v>610</v>
+        <v>240</v>
       </c>
       <c r="D115">
-        <v>780</v>
+        <v>520</v>
       </c>
       <c r="E115">
         <v>3000</v>
       </c>
       <c r="F115">
-        <v>384.6</v>
+        <v>576.9</v>
       </c>
       <c r="G115" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>98</v>
+        <v>64</v>
       </c>
       <c r="B116">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="C116">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="D116">
         <v>260</v>
       </c>
       <c r="E116">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="F116">
-        <v>384.6</v>
+        <v>576.9</v>
       </c>
       <c r="G116" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>105</v>
+        <v>179</v>
       </c>
       <c r="B117">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="C117">
-        <v>590</v>
+        <v>290</v>
       </c>
       <c r="D117">
-        <v>780</v>
+        <v>500</v>
       </c>
       <c r="E117">
         <v>3000</v>
       </c>
       <c r="F117">
-        <v>384.6</v>
+        <v>600</v>
       </c>
       <c r="G117" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>57</v>
+        <v>183</v>
       </c>
       <c r="B118">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="C118">
-        <v>480</v>
+        <v>220</v>
       </c>
       <c r="D118">
-        <v>770</v>
+        <v>500</v>
       </c>
       <c r="E118">
         <v>3000</v>
       </c>
       <c r="F118">
-        <v>389.6</v>
+        <v>600</v>
       </c>
       <c r="G118" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>115</v>
+        <v>151</v>
       </c>
       <c r="B119">
-        <v>110</v>
+        <v>260</v>
       </c>
       <c r="C119">
-        <v>140</v>
+        <v>230</v>
       </c>
       <c r="D119">
-        <v>250</v>
+        <v>490</v>
       </c>
       <c r="E119">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="F119">
-        <v>400</v>
+        <v>612.20000000000005</v>
       </c>
       <c r="G119" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="B120">
-        <v>320</v>
+        <v>210</v>
       </c>
       <c r="C120">
-        <v>430</v>
+        <v>280</v>
       </c>
       <c r="D120">
-        <v>750</v>
+        <v>490</v>
       </c>
       <c r="E120">
         <v>3000</v>
       </c>
       <c r="F120">
-        <v>400</v>
+        <v>612.20000000000005</v>
       </c>
       <c r="G120" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>187</v>
+        <v>273</v>
       </c>
       <c r="B121">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="C121">
-        <v>420</v>
+        <v>180</v>
       </c>
       <c r="D121">
-        <v>740</v>
+        <v>490</v>
       </c>
       <c r="E121">
         <v>3000</v>
       </c>
       <c r="F121">
-        <v>405.4</v>
+        <v>612.20000000000005</v>
       </c>
       <c r="G121" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>210</v>
+        <v>133</v>
       </c>
       <c r="B122">
-        <v>460</v>
+        <v>110</v>
       </c>
       <c r="C122">
-        <v>270</v>
+        <v>130</v>
       </c>
       <c r="D122">
-        <v>730</v>
+        <v>240</v>
       </c>
       <c r="E122">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="F122">
-        <v>411</v>
+        <v>625</v>
       </c>
       <c r="G122" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>177</v>
+        <v>155</v>
       </c>
       <c r="B123">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="C123">
-        <v>610</v>
+        <v>350</v>
       </c>
       <c r="D123">
-        <v>720</v>
+        <v>470</v>
       </c>
       <c r="E123">
         <v>3000</v>
       </c>
       <c r="F123">
-        <v>416.7</v>
+        <v>638.29999999999995</v>
       </c>
       <c r="G123" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>95</v>
+        <v>164</v>
       </c>
       <c r="B124">
-        <v>110</v>
+        <v>210</v>
       </c>
       <c r="C124">
-        <v>580</v>
+        <v>260</v>
       </c>
       <c r="D124">
-        <v>690</v>
+        <v>470</v>
       </c>
       <c r="E124">
         <v>3000</v>
       </c>
       <c r="F124">
-        <v>434.8</v>
+        <v>638.29999999999995</v>
       </c>
       <c r="G124" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>24</v>
+        <v>149</v>
       </c>
       <c r="B125">
-        <v>240</v>
+        <v>140</v>
       </c>
       <c r="C125">
-        <v>90</v>
+        <v>320</v>
       </c>
       <c r="D125">
-        <v>330</v>
+        <v>460</v>
       </c>
       <c r="E125">
-        <v>1500</v>
+        <v>3000</v>
       </c>
       <c r="F125">
-        <v>454.5</v>
+        <v>652.20000000000005</v>
       </c>
       <c r="G125" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>83</v>
+        <v>229</v>
       </c>
       <c r="B126">
-        <v>90</v>
+        <v>160</v>
       </c>
       <c r="C126">
-        <v>130</v>
+        <v>290</v>
       </c>
       <c r="D126">
-        <v>220</v>
+        <v>450</v>
       </c>
       <c r="E126">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="F126">
-        <v>454.5</v>
+        <v>666.7</v>
       </c>
       <c r="G126" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>212</v>
+        <v>136</v>
       </c>
       <c r="B127">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="C127">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="D127">
-        <v>320</v>
+        <v>210</v>
       </c>
       <c r="E127">
         <v>1500</v>
       </c>
       <c r="F127">
-        <v>468.8</v>
+        <v>714.3</v>
       </c>
       <c r="G127" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="B128">
-        <v>330</v>
+        <v>260</v>
       </c>
       <c r="C128">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="D128">
-        <v>630</v>
+        <v>410</v>
       </c>
       <c r="E128">
         <v>3000</v>
       </c>
       <c r="F128">
-        <v>476.2</v>
+        <v>731.7</v>
       </c>
       <c r="G128" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>269</v>
+        <v>56</v>
       </c>
       <c r="B129">
         <v>120</v>
       </c>
       <c r="C129">
-        <v>90</v>
+        <v>290</v>
       </c>
       <c r="D129">
-        <v>210</v>
+        <v>410</v>
       </c>
       <c r="E129">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="F129">
-        <v>476.2</v>
+        <v>731.7</v>
       </c>
       <c r="G129" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>91</v>
+        <v>123</v>
       </c>
       <c r="B130">
         <v>210</v>
       </c>
       <c r="C130">
-        <v>380</v>
+        <v>180</v>
       </c>
       <c r="D130">
-        <v>590</v>
+        <v>390</v>
       </c>
       <c r="E130">
         <v>3000</v>
       </c>
       <c r="F130">
-        <v>508.5</v>
+        <v>769.2</v>
       </c>
       <c r="G130" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>117</v>
+        <v>241</v>
       </c>
       <c r="B131">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="C131">
-        <v>380</v>
+        <v>150</v>
       </c>
       <c r="D131">
-        <v>590</v>
+        <v>370</v>
       </c>
       <c r="E131">
         <v>3000</v>
       </c>
       <c r="F131">
-        <v>508.5</v>
+        <v>810.8</v>
       </c>
       <c r="G131" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B132">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="C132">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="D132">
-        <v>290</v>
+        <v>340</v>
       </c>
       <c r="E132">
-        <v>1500</v>
+        <v>3000</v>
       </c>
       <c r="F132">
-        <v>517.20000000000005</v>
+        <v>882.4</v>
       </c>
       <c r="G132" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B133">
-        <v>280</v>
+        <v>200</v>
       </c>
       <c r="C133">
-        <v>280</v>
+        <v>130</v>
       </c>
       <c r="D133">
-        <v>560</v>
+        <v>330</v>
       </c>
       <c r="E133">
         <v>3000</v>
       </c>
       <c r="F133">
-        <v>535.70000000000005</v>
+        <v>909.1</v>
       </c>
       <c r="G133" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>255</v>
+        <v>39</v>
       </c>
       <c r="B134">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="C134">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="D134">
-        <v>280</v>
+        <v>320</v>
       </c>
       <c r="E134">
-        <v>1500</v>
+        <v>3000</v>
       </c>
       <c r="F134">
-        <v>535.70000000000005</v>
+        <v>937.5</v>
       </c>
       <c r="G134" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>157</v>
+        <v>187</v>
       </c>
       <c r="B135">
-        <v>250</v>
+        <v>180</v>
       </c>
       <c r="C135">
-        <v>300</v>
+        <v>130</v>
       </c>
       <c r="D135">
-        <v>550</v>
+        <v>310</v>
       </c>
       <c r="E135">
         <v>3000</v>
       </c>
       <c r="F135">
-        <v>545.5</v>
+        <v>967.7</v>
       </c>
       <c r="G135" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>205</v>
+        <v>216</v>
       </c>
       <c r="B136">
-        <v>230</v>
+        <v>60</v>
       </c>
       <c r="C136">
-        <v>320</v>
+        <v>250</v>
       </c>
       <c r="D136">
-        <v>550</v>
+        <v>310</v>
       </c>
       <c r="E136">
         <v>3000</v>
       </c>
       <c r="F136">
-        <v>545.5</v>
+        <v>967.7</v>
       </c>
       <c r="G136" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>38</v>
+        <v>185</v>
       </c>
       <c r="B137">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="C137">
-        <v>380</v>
+        <v>200</v>
       </c>
       <c r="D137">
-        <v>520</v>
+        <v>300</v>
       </c>
       <c r="E137">
         <v>3000</v>
       </c>
       <c r="F137">
-        <v>576.9</v>
+        <v>1000</v>
       </c>
       <c r="G137" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>71</v>
+        <v>154</v>
       </c>
       <c r="B138">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="C138">
-        <v>180</v>
+        <v>210</v>
       </c>
       <c r="D138">
-        <v>260</v>
+        <v>280</v>
       </c>
       <c r="E138">
-        <v>1500</v>
+        <v>3000</v>
       </c>
       <c r="F138">
-        <v>576.9</v>
+        <v>1071.4000000000001</v>
       </c>
       <c r="G138" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B139">
-        <v>220</v>
+        <v>140</v>
       </c>
       <c r="C139">
-        <v>290</v>
+        <v>140</v>
       </c>
       <c r="D139">
-        <v>510</v>
+        <v>280</v>
       </c>
       <c r="E139">
         <v>3000</v>
       </c>
       <c r="F139">
-        <v>588.20000000000005</v>
+        <v>1071.4000000000001</v>
       </c>
       <c r="G139" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>258</v>
+        <v>240</v>
       </c>
       <c r="B140">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="C140">
-        <v>500</v>
+        <v>190</v>
       </c>
       <c r="D140">
-        <v>510</v>
+        <v>270</v>
       </c>
       <c r="E140">
         <v>3000</v>
       </c>
       <c r="F140">
-        <v>588.20000000000005</v>
+        <v>1111.0999999999999</v>
       </c>
       <c r="G140" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>158</v>
+        <v>111</v>
       </c>
       <c r="B141">
-        <v>300</v>
+        <v>70</v>
       </c>
       <c r="C141">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="D141">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="E141">
         <v>3000</v>
       </c>
       <c r="F141">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="G141" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>180</v>
+        <v>43</v>
       </c>
       <c r="B142">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="C142">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="D142">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="E142">
-        <v>1500</v>
+        <v>3000</v>
       </c>
       <c r="F142">
-        <v>600</v>
+        <v>1304.3</v>
       </c>
       <c r="G142" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="B143">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="C143">
-        <v>340</v>
+        <v>110</v>
       </c>
       <c r="D143">
-        <v>490</v>
+        <v>230</v>
       </c>
       <c r="E143">
         <v>3000</v>
       </c>
       <c r="F143">
-        <v>612.20000000000005</v>
+        <v>1304.3</v>
       </c>
       <c r="G143" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>179</v>
+        <v>72</v>
       </c>
       <c r="B144">
+        <v>40</v>
+      </c>
+      <c r="C144">
+        <v>160</v>
+      </c>
+      <c r="D144">
         <v>200</v>
-      </c>
-      <c r="C144">
-        <v>290</v>
-      </c>
-      <c r="D144">
-        <v>490</v>
       </c>
       <c r="E144">
         <v>3000</v>
       </c>
       <c r="F144">
-        <v>612.20000000000005</v>
+        <v>1500</v>
       </c>
       <c r="G144" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>182</v>
+        <v>147</v>
       </c>
       <c r="B145">
-        <v>270</v>
+        <v>90</v>
       </c>
       <c r="C145">
-        <v>220</v>
+        <v>110</v>
       </c>
       <c r="D145">
-        <v>490</v>
+        <v>200</v>
       </c>
       <c r="E145">
         <v>3000</v>
       </c>
       <c r="F145">
-        <v>612.20000000000005</v>
+        <v>1500</v>
       </c>
       <c r="G145" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>41</v>
+        <v>230</v>
       </c>
       <c r="B146">
-        <v>210</v>
+        <v>90</v>
       </c>
       <c r="C146">
-        <v>270</v>
+        <v>110</v>
       </c>
       <c r="D146">
-        <v>480</v>
+        <v>200</v>
       </c>
       <c r="E146">
         <v>3000</v>
       </c>
       <c r="F146">
-        <v>625</v>
+        <v>1500</v>
       </c>
       <c r="G146" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>102</v>
+        <v>9</v>
       </c>
       <c r="B147">
-        <v>120</v>
+        <v>550</v>
       </c>
       <c r="C147">
-        <v>120</v>
+        <v>270</v>
       </c>
       <c r="D147">
-        <v>240</v>
-      </c>
-      <c r="E147">
-        <v>1500</v>
-      </c>
-      <c r="F147">
-        <v>625</v>
+        <v>820</v>
+      </c>
+      <c r="F147" t="s">
+        <v>10</v>
       </c>
       <c r="G147" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>120</v>
+        <v>14</v>
       </c>
       <c r="B148">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="C148">
-        <v>110</v>
+        <v>240</v>
       </c>
       <c r="D148">
-        <v>240</v>
-      </c>
-      <c r="E148">
-        <v>1500</v>
-      </c>
-      <c r="F148">
-        <v>625</v>
+        <v>330</v>
+      </c>
+      <c r="F148" t="s">
+        <v>10</v>
       </c>
       <c r="G148" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>257</v>
+        <v>16</v>
       </c>
       <c r="B149">
-        <v>70</v>
+        <v>260</v>
       </c>
       <c r="C149">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="D149">
-        <v>240</v>
-      </c>
-      <c r="E149">
-        <v>1500</v>
-      </c>
-      <c r="F149">
-        <v>625</v>
+        <v>440</v>
+      </c>
+      <c r="F149" t="s">
+        <v>10</v>
       </c>
       <c r="G149" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="B150">
-        <v>310</v>
+        <v>500</v>
       </c>
       <c r="C150">
-        <v>160</v>
+        <v>330</v>
       </c>
       <c r="D150">
-        <v>470</v>
-      </c>
-      <c r="E150">
-        <v>3000</v>
-      </c>
-      <c r="F150">
-        <v>638.29999999999995</v>
+        <v>830</v>
+      </c>
+      <c r="F150" t="s">
+        <v>10</v>
       </c>
       <c r="G150" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>246</v>
+        <v>19</v>
       </c>
       <c r="B151">
-        <v>280</v>
+        <v>240</v>
       </c>
       <c r="C151">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="D151">
-        <v>470</v>
-      </c>
-      <c r="E151">
-        <v>3000</v>
-      </c>
-      <c r="F151">
-        <v>638.29999999999995</v>
+        <v>390</v>
+      </c>
+      <c r="F151" t="s">
+        <v>10</v>
       </c>
       <c r="G151" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>244</v>
+        <v>24</v>
       </c>
       <c r="B152">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="C152">
-        <v>380</v>
+        <v>90</v>
       </c>
       <c r="D152">
-        <v>460</v>
-      </c>
-      <c r="E152">
-        <v>3000</v>
-      </c>
-      <c r="F152">
-        <v>652.20000000000005</v>
+        <v>220</v>
+      </c>
+      <c r="F152" t="s">
+        <v>10</v>
       </c>
       <c r="G152" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>245</v>
+        <v>25</v>
       </c>
       <c r="B153">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="C153">
-        <v>100</v>
+        <v>530</v>
       </c>
       <c r="D153">
-        <v>230</v>
-      </c>
-      <c r="E153">
-        <v>1500</v>
-      </c>
-      <c r="F153">
-        <v>652.20000000000005</v>
+        <v>630</v>
+      </c>
+      <c r="F153" t="s">
+        <v>10</v>
       </c>
       <c r="G153" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>235</v>
+        <v>28</v>
       </c>
       <c r="B154">
-        <v>230</v>
+        <v>160</v>
       </c>
       <c r="C154">
-        <v>220</v>
+        <v>190</v>
       </c>
       <c r="D154">
-        <v>450</v>
-      </c>
-      <c r="E154">
-        <v>3000</v>
-      </c>
-      <c r="F154">
-        <v>666.7</v>
+        <v>350</v>
+      </c>
+      <c r="F154" t="s">
+        <v>10</v>
       </c>
       <c r="G154" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>273</v>
+        <v>29</v>
       </c>
       <c r="B155">
-        <v>290</v>
+        <v>310</v>
       </c>
       <c r="C155">
-        <v>160</v>
+        <v>520</v>
       </c>
       <c r="D155">
-        <v>450</v>
-      </c>
-      <c r="E155">
-        <v>3000</v>
-      </c>
-      <c r="F155">
-        <v>666.7</v>
+        <v>830</v>
+      </c>
+      <c r="F155" t="s">
+        <v>10</v>
       </c>
       <c r="G155" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="B156">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="C156">
-        <v>190</v>
+        <v>300</v>
       </c>
       <c r="D156">
-        <v>400</v>
-      </c>
-      <c r="E156">
-        <v>3000</v>
-      </c>
-      <c r="F156">
-        <v>750</v>
+        <v>490</v>
+      </c>
+      <c r="F156" t="s">
+        <v>10</v>
       </c>
       <c r="G156" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>94</v>
+        <v>31</v>
       </c>
       <c r="B157">
-        <v>180</v>
+        <v>220</v>
       </c>
       <c r="C157">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="D157">
-        <v>380</v>
-      </c>
-      <c r="E157">
-        <v>3000</v>
-      </c>
-      <c r="F157">
-        <v>789.5</v>
+        <v>520</v>
+      </c>
+      <c r="F157" t="s">
+        <v>10</v>
       </c>
       <c r="G157" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>197</v>
+        <v>32</v>
       </c>
       <c r="B158">
-        <v>220</v>
+        <v>240</v>
       </c>
       <c r="C158">
-        <v>150</v>
+        <v>490</v>
       </c>
       <c r="D158">
-        <v>370</v>
-      </c>
-      <c r="E158">
-        <v>3000</v>
-      </c>
-      <c r="F158">
-        <v>810.8</v>
+        <v>730</v>
+      </c>
+      <c r="F158" t="s">
+        <v>10</v>
       </c>
       <c r="G158" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.3">
@@ -4899,2203 +4854,1966 @@
         <v>33</v>
       </c>
       <c r="B159">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="C159">
-        <v>200</v>
+        <v>130</v>
       </c>
       <c r="D159">
-        <v>350</v>
-      </c>
-      <c r="E159">
-        <v>3000</v>
-      </c>
-      <c r="F159">
-        <v>857.1</v>
+        <v>220</v>
+      </c>
+      <c r="F159" t="s">
+        <v>10</v>
       </c>
       <c r="G159" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>106</v>
+        <v>34</v>
       </c>
       <c r="B160">
-        <v>120</v>
+        <v>370</v>
       </c>
       <c r="C160">
-        <v>210</v>
+        <v>510</v>
       </c>
       <c r="D160">
-        <v>330</v>
-      </c>
-      <c r="E160">
-        <v>3000</v>
-      </c>
-      <c r="F160">
-        <v>909.1</v>
+        <v>880</v>
+      </c>
+      <c r="F160" t="s">
+        <v>10</v>
       </c>
       <c r="G160" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>226</v>
+        <v>36</v>
       </c>
       <c r="B161">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="C161">
-        <v>90</v>
+        <v>650</v>
       </c>
       <c r="D161">
-        <v>330</v>
-      </c>
-      <c r="E161">
-        <v>3000</v>
-      </c>
-      <c r="F161">
-        <v>909.1</v>
+        <v>900</v>
+      </c>
+      <c r="F161" t="s">
+        <v>10</v>
       </c>
       <c r="G161" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>154</v>
+        <v>37</v>
       </c>
       <c r="B162">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="C162">
-        <v>190</v>
+        <v>220</v>
       </c>
       <c r="D162">
-        <v>300</v>
-      </c>
-      <c r="E162">
-        <v>3000</v>
-      </c>
-      <c r="F162">
-        <v>1000</v>
+        <v>360</v>
+      </c>
+      <c r="F162" t="s">
+        <v>10</v>
       </c>
       <c r="G162" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>183</v>
+        <v>38</v>
       </c>
       <c r="B163">
-        <v>110</v>
+        <v>200</v>
       </c>
       <c r="C163">
-        <v>180</v>
+        <v>370</v>
       </c>
       <c r="D163">
-        <v>290</v>
-      </c>
-      <c r="E163">
-        <v>3000</v>
-      </c>
-      <c r="F163">
-        <v>1034.5</v>
+        <v>570</v>
+      </c>
+      <c r="F163" t="s">
+        <v>10</v>
       </c>
       <c r="G163" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>77</v>
+        <v>44</v>
       </c>
       <c r="B164">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="C164">
-        <v>130</v>
+        <v>170</v>
       </c>
       <c r="D164">
-        <v>280</v>
-      </c>
-      <c r="E164">
-        <v>3000</v>
-      </c>
-      <c r="F164">
-        <v>1071.4000000000001</v>
+        <v>270</v>
+      </c>
+      <c r="F164" t="s">
+        <v>10</v>
       </c>
       <c r="G164" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>128</v>
+        <v>45</v>
       </c>
       <c r="B165">
-        <v>140</v>
+        <v>400</v>
       </c>
       <c r="C165">
-        <v>140</v>
+        <v>510</v>
       </c>
       <c r="D165">
-        <v>280</v>
-      </c>
-      <c r="E165">
-        <v>3000</v>
-      </c>
-      <c r="F165">
-        <v>1071.4000000000001</v>
+        <v>910</v>
+      </c>
+      <c r="F165" t="s">
+        <v>10</v>
       </c>
       <c r="G165" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="B166">
-        <v>130</v>
+        <v>360</v>
       </c>
       <c r="C166">
-        <v>150</v>
+        <v>290</v>
       </c>
       <c r="D166">
-        <v>280</v>
-      </c>
-      <c r="E166">
-        <v>3000</v>
-      </c>
-      <c r="F166">
-        <v>1071.4000000000001</v>
+        <v>650</v>
+      </c>
+      <c r="F166" t="s">
+        <v>10</v>
       </c>
       <c r="G166" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="B167">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="C167">
-        <v>120</v>
+        <v>230</v>
       </c>
       <c r="D167">
-        <v>270</v>
-      </c>
-      <c r="E167">
-        <v>3000</v>
-      </c>
-      <c r="F167">
-        <v>1111.0999999999999</v>
+        <v>530</v>
+      </c>
+      <c r="F167" t="s">
+        <v>10</v>
       </c>
       <c r="G167" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>109</v>
+        <v>51</v>
       </c>
       <c r="B168">
-        <v>130</v>
+        <v>270</v>
       </c>
       <c r="C168">
-        <v>140</v>
+        <v>470</v>
       </c>
       <c r="D168">
-        <v>270</v>
-      </c>
-      <c r="E168">
-        <v>3000</v>
-      </c>
-      <c r="F168">
-        <v>1111.0999999999999</v>
+        <v>740</v>
+      </c>
+      <c r="F168" t="s">
+        <v>10</v>
       </c>
       <c r="G168" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="B169">
-        <v>80</v>
+        <v>170</v>
       </c>
       <c r="C169">
-        <v>180</v>
+        <v>110</v>
       </c>
       <c r="D169">
-        <v>260</v>
-      </c>
-      <c r="E169">
-        <v>3000</v>
-      </c>
-      <c r="F169">
-        <v>1153.8</v>
+        <v>280</v>
+      </c>
+      <c r="F169" t="s">
+        <v>10</v>
       </c>
       <c r="G169" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>188</v>
+        <v>58</v>
       </c>
       <c r="B170">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="C170">
-        <v>170</v>
+        <v>290</v>
       </c>
       <c r="D170">
-        <v>260</v>
-      </c>
-      <c r="E170">
-        <v>3000</v>
-      </c>
-      <c r="F170">
-        <v>1153.8</v>
+        <v>440</v>
+      </c>
+      <c r="F170" t="s">
+        <v>10</v>
       </c>
       <c r="G170" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="B171">
-        <v>170</v>
+        <v>330</v>
       </c>
       <c r="C171">
-        <v>80</v>
+        <v>430</v>
       </c>
       <c r="D171">
-        <v>250</v>
-      </c>
-      <c r="E171">
-        <v>3000</v>
-      </c>
-      <c r="F171">
-        <v>1200</v>
+        <v>760</v>
+      </c>
+      <c r="F171" t="s">
+        <v>10</v>
       </c>
       <c r="G171" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>191</v>
+        <v>62</v>
       </c>
       <c r="B172">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="C172">
         <v>130</v>
       </c>
       <c r="D172">
-        <v>230</v>
-      </c>
-      <c r="E172">
-        <v>3000</v>
-      </c>
-      <c r="F172">
-        <v>1304.3</v>
+        <v>240</v>
+      </c>
+      <c r="F172" t="s">
+        <v>10</v>
       </c>
       <c r="G172" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>132</v>
+        <v>65</v>
       </c>
       <c r="B173">
-        <v>140</v>
+        <v>260</v>
       </c>
       <c r="C173">
-        <v>80</v>
+        <v>330</v>
       </c>
       <c r="D173">
-        <v>220</v>
-      </c>
-      <c r="E173">
-        <v>3000</v>
-      </c>
-      <c r="F173">
-        <v>1363.6</v>
+        <v>590</v>
+      </c>
+      <c r="F173" t="s">
+        <v>10</v>
       </c>
       <c r="G173" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="B174">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="C174">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="D174">
         <v>210</v>
       </c>
-      <c r="E174">
-        <v>3000</v>
-      </c>
-      <c r="F174">
-        <v>1428.6</v>
+      <c r="F174" t="s">
+        <v>10</v>
       </c>
       <c r="G174" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="B175">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="C175">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="D175">
-        <v>200</v>
-      </c>
-      <c r="E175">
-        <v>3000</v>
-      </c>
-      <c r="F175">
-        <v>1500</v>
+        <v>240</v>
+      </c>
+      <c r="F175" t="s">
+        <v>10</v>
       </c>
       <c r="G175" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>199</v>
+        <v>75</v>
       </c>
       <c r="B176">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="C176">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="D176">
-        <v>200</v>
-      </c>
-      <c r="E176">
-        <v>3000</v>
-      </c>
-      <c r="F176">
-        <v>1500</v>
+        <v>230</v>
+      </c>
+      <c r="F176" t="s">
+        <v>10</v>
       </c>
       <c r="G176" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>256</v>
+        <v>76</v>
       </c>
       <c r="B177">
+        <v>220</v>
+      </c>
+      <c r="C177">
         <v>120</v>
       </c>
-      <c r="C177">
-        <v>80</v>
-      </c>
       <c r="D177">
-        <v>200</v>
-      </c>
-      <c r="E177">
-        <v>3000</v>
-      </c>
-      <c r="F177">
-        <v>1500</v>
+        <v>340</v>
+      </c>
+      <c r="F177" t="s">
+        <v>10</v>
       </c>
       <c r="G177" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="B178">
-        <v>570</v>
+        <v>230</v>
       </c>
       <c r="C178">
-        <v>280</v>
+        <v>310</v>
       </c>
       <c r="D178">
-        <v>850</v>
+        <v>540</v>
       </c>
       <c r="F178" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G178" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>16</v>
+        <v>82</v>
       </c>
       <c r="B179">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="C179">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="D179">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="F179" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G179" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>19</v>
+        <v>83</v>
       </c>
       <c r="B180">
-        <v>420</v>
+        <v>270</v>
       </c>
       <c r="C180">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="D180">
-        <v>580</v>
+        <v>450</v>
       </c>
       <c r="F180" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G180" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>20</v>
+        <v>89</v>
       </c>
       <c r="B181">
-        <v>130</v>
+        <v>160</v>
       </c>
       <c r="C181">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D181">
-        <v>220</v>
+        <v>240</v>
       </c>
       <c r="F181" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G181" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>23</v>
+        <v>94</v>
       </c>
       <c r="B182">
-        <v>300</v>
+        <v>210</v>
       </c>
       <c r="C182">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="D182">
-        <v>500</v>
+        <v>380</v>
       </c>
       <c r="F182" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G182" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>29</v>
+        <v>96</v>
       </c>
       <c r="B183">
-        <v>320</v>
+        <v>90</v>
       </c>
       <c r="C183">
-        <v>140</v>
+        <v>210</v>
       </c>
       <c r="D183">
-        <v>460</v>
+        <v>300</v>
       </c>
       <c r="F183" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G183" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>34</v>
+        <v>101</v>
       </c>
       <c r="B184">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="C184">
-        <v>490</v>
+        <v>190</v>
       </c>
       <c r="D184">
-        <v>600</v>
+        <v>290</v>
       </c>
       <c r="F184" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G184" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>36</v>
+        <v>102</v>
       </c>
       <c r="B185">
-        <v>100</v>
+        <v>190</v>
       </c>
       <c r="C185">
-        <v>190</v>
+        <v>350</v>
       </c>
       <c r="D185">
-        <v>290</v>
+        <v>540</v>
       </c>
       <c r="F185" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G185" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>37</v>
+        <v>103</v>
       </c>
       <c r="B186">
         <v>340</v>
       </c>
       <c r="C186">
-        <v>280</v>
+        <v>370</v>
       </c>
       <c r="D186">
-        <v>620</v>
+        <v>710</v>
       </c>
       <c r="F186" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G186" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>49</v>
+        <v>104</v>
       </c>
       <c r="B187">
-        <v>280</v>
+        <v>350</v>
       </c>
       <c r="C187">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="D187">
-        <v>630</v>
+        <v>690</v>
       </c>
       <c r="F187" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G187" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>50</v>
+        <v>105</v>
       </c>
       <c r="B188">
-        <v>190</v>
+        <v>140</v>
       </c>
       <c r="C188">
-        <v>120</v>
+        <v>210</v>
       </c>
       <c r="D188">
-        <v>310</v>
+        <v>350</v>
       </c>
       <c r="F188" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G188" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>51</v>
+        <v>108</v>
       </c>
       <c r="B189">
-        <v>190</v>
+        <v>140</v>
       </c>
       <c r="C189">
-        <v>530</v>
+        <v>130</v>
       </c>
       <c r="D189">
-        <v>720</v>
+        <v>270</v>
       </c>
       <c r="F189" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G189" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>52</v>
+        <v>109</v>
       </c>
       <c r="B190">
-        <v>90</v>
+        <v>140</v>
       </c>
       <c r="C190">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="D190">
-        <v>250</v>
+        <v>310</v>
       </c>
       <c r="F190" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G190" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>54</v>
+        <v>112</v>
       </c>
       <c r="B191">
-        <v>440</v>
+        <v>130</v>
       </c>
       <c r="C191">
-        <v>560</v>
+        <v>180</v>
       </c>
       <c r="D191">
-        <v>1000</v>
+        <v>310</v>
       </c>
       <c r="F191" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G191" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>56</v>
+        <v>113</v>
       </c>
       <c r="B192">
         <v>220</v>
       </c>
       <c r="C192">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="D192">
-        <v>400</v>
+        <v>340</v>
       </c>
       <c r="F192" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G192" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>58</v>
+        <v>114</v>
       </c>
       <c r="B193">
         <v>110</v>
       </c>
       <c r="C193">
-        <v>210</v>
+        <v>150</v>
       </c>
       <c r="D193">
-        <v>320</v>
+        <v>260</v>
       </c>
       <c r="F193" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G193" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>62</v>
+        <v>118</v>
       </c>
       <c r="B194">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="C194">
-        <v>110</v>
+        <v>220</v>
       </c>
       <c r="D194">
-        <v>210</v>
+        <v>310</v>
       </c>
       <c r="F194" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G194" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>66</v>
+        <v>119</v>
       </c>
       <c r="B195">
-        <v>310</v>
+        <v>130</v>
       </c>
       <c r="C195">
-        <v>610</v>
+        <v>200</v>
       </c>
       <c r="D195">
-        <v>920</v>
+        <v>330</v>
       </c>
       <c r="F195" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G195" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>67</v>
+        <v>120</v>
       </c>
       <c r="B196">
-        <v>400</v>
+        <v>130</v>
       </c>
       <c r="C196">
-        <v>350</v>
+        <v>150</v>
       </c>
       <c r="D196">
-        <v>750</v>
+        <v>280</v>
       </c>
       <c r="F196" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G196" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>68</v>
+        <v>121</v>
       </c>
       <c r="B197">
-        <v>100</v>
+        <v>170</v>
       </c>
       <c r="C197">
-        <v>260</v>
+        <v>370</v>
       </c>
       <c r="D197">
-        <v>360</v>
+        <v>540</v>
       </c>
       <c r="F197" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G197" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>69</v>
+        <v>125</v>
       </c>
       <c r="B198">
-        <v>140</v>
+        <v>230</v>
       </c>
       <c r="C198">
-        <v>190</v>
+        <v>460</v>
       </c>
       <c r="D198">
-        <v>330</v>
+        <v>690</v>
       </c>
       <c r="F198" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G198" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>70</v>
+        <v>126</v>
       </c>
       <c r="B199">
-        <v>240</v>
+        <v>210</v>
       </c>
       <c r="C199">
-        <v>480</v>
+        <v>260</v>
       </c>
       <c r="D199">
-        <v>720</v>
+        <v>470</v>
       </c>
       <c r="F199" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G199" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>74</v>
+        <v>131</v>
       </c>
       <c r="B200">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="C200">
-        <v>120</v>
+        <v>170</v>
       </c>
       <c r="D200">
-        <v>200</v>
+        <v>330</v>
       </c>
       <c r="F200" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G200" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>75</v>
+        <v>132</v>
       </c>
       <c r="B201">
-        <v>270</v>
+        <v>310</v>
       </c>
       <c r="C201">
-        <v>130</v>
+        <v>250</v>
       </c>
       <c r="D201">
-        <v>400</v>
+        <v>560</v>
       </c>
       <c r="F201" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G201" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>76</v>
+        <v>134</v>
       </c>
       <c r="B202">
-        <v>240</v>
+        <v>130</v>
       </c>
       <c r="C202">
-        <v>310</v>
+        <v>270</v>
       </c>
       <c r="D202">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="F202" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G202" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>78</v>
+        <v>135</v>
       </c>
       <c r="B203">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="C203">
-        <v>240</v>
+        <v>130</v>
       </c>
       <c r="D203">
-        <v>390</v>
+        <v>230</v>
       </c>
       <c r="F203" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G203" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>84</v>
+        <v>138</v>
       </c>
       <c r="B204">
-        <v>380</v>
+        <v>230</v>
       </c>
       <c r="C204">
-        <v>390</v>
+        <v>220</v>
       </c>
       <c r="D204">
-        <v>770</v>
+        <v>450</v>
       </c>
       <c r="F204" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G204" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>87</v>
+        <v>139</v>
       </c>
       <c r="B205">
-        <v>180</v>
+        <v>210</v>
       </c>
       <c r="C205">
-        <v>180</v>
+        <v>360</v>
       </c>
       <c r="D205">
-        <v>360</v>
+        <v>570</v>
       </c>
       <c r="F205" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G205" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>88</v>
+        <v>140</v>
       </c>
       <c r="B206">
-        <v>240</v>
+        <v>280</v>
       </c>
       <c r="C206">
-        <v>230</v>
+        <v>560</v>
       </c>
       <c r="D206">
-        <v>470</v>
+        <v>840</v>
       </c>
       <c r="F206" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G206" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>89</v>
+        <v>141</v>
       </c>
       <c r="B207">
-        <v>220</v>
+        <v>30</v>
       </c>
       <c r="C207">
-        <v>260</v>
+        <v>330</v>
       </c>
       <c r="D207">
-        <v>480</v>
+        <v>360</v>
       </c>
       <c r="F207" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G207" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>90</v>
+        <v>148</v>
       </c>
       <c r="B208">
-        <v>110</v>
+        <v>210</v>
       </c>
       <c r="C208">
-        <v>130</v>
+        <v>580</v>
       </c>
       <c r="D208">
-        <v>240</v>
+        <v>790</v>
       </c>
       <c r="F208" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G208" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>92</v>
+        <v>150</v>
       </c>
       <c r="B209">
-        <v>190</v>
+        <v>80</v>
       </c>
       <c r="C209">
-        <v>350</v>
+        <v>160</v>
       </c>
       <c r="D209">
-        <v>540</v>
+        <v>240</v>
       </c>
       <c r="F209" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G209" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>93</v>
+        <v>152</v>
       </c>
       <c r="B210">
-        <v>330</v>
+        <v>220</v>
       </c>
       <c r="C210">
-        <v>260</v>
+        <v>470</v>
       </c>
       <c r="D210">
-        <v>590</v>
+        <v>690</v>
       </c>
       <c r="F210" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G210" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>101</v>
+        <v>156</v>
       </c>
       <c r="B211">
-        <v>330</v>
+        <v>420</v>
       </c>
       <c r="C211">
-        <v>570</v>
+        <v>430</v>
       </c>
       <c r="D211">
-        <v>900</v>
+        <v>850</v>
       </c>
       <c r="F211" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G211" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>103</v>
+        <v>157</v>
       </c>
       <c r="B212">
+        <v>120</v>
+      </c>
+      <c r="C212">
         <v>140</v>
       </c>
-      <c r="C212">
-        <v>290</v>
-      </c>
       <c r="D212">
-        <v>430</v>
+        <v>260</v>
       </c>
       <c r="F212" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G212" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>110</v>
+        <v>158</v>
       </c>
       <c r="B213">
-        <v>20</v>
+        <v>180</v>
       </c>
       <c r="C213">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="D213">
-        <v>220</v>
+        <v>330</v>
       </c>
       <c r="F213" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G213" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>116</v>
+        <v>161</v>
       </c>
       <c r="B214">
-        <v>250</v>
+        <v>130</v>
       </c>
       <c r="C214">
-        <v>320</v>
+        <v>130</v>
       </c>
       <c r="D214">
-        <v>570</v>
+        <v>260</v>
       </c>
       <c r="F214" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G214" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>119</v>
+        <v>163</v>
       </c>
       <c r="B215">
-        <v>130</v>
+        <v>240</v>
       </c>
       <c r="C215">
-        <v>170</v>
+        <v>140</v>
       </c>
       <c r="D215">
-        <v>300</v>
+        <v>380</v>
       </c>
       <c r="F215" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G215" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>122</v>
+        <v>166</v>
       </c>
       <c r="B216">
-        <v>450</v>
+        <v>120</v>
       </c>
       <c r="C216">
-        <v>450</v>
+        <v>90</v>
       </c>
       <c r="D216">
-        <v>900</v>
+        <v>210</v>
       </c>
       <c r="F216" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G216" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>126</v>
+        <v>167</v>
       </c>
       <c r="B217">
-        <v>130</v>
+        <v>170</v>
       </c>
       <c r="C217">
-        <v>260</v>
+        <v>80</v>
       </c>
       <c r="D217">
-        <v>390</v>
+        <v>250</v>
       </c>
       <c r="F217" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G217" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>133</v>
+        <v>168</v>
       </c>
       <c r="B218">
-        <v>130</v>
+        <v>360</v>
       </c>
       <c r="C218">
-        <v>180</v>
+        <v>430</v>
       </c>
       <c r="D218">
-        <v>310</v>
+        <v>790</v>
       </c>
       <c r="F218" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G218" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>134</v>
+        <v>169</v>
       </c>
       <c r="B219">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="C219">
-        <v>230</v>
+        <v>170</v>
       </c>
       <c r="D219">
-        <v>380</v>
+        <v>300</v>
       </c>
       <c r="F219" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G219" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>135</v>
+        <v>170</v>
       </c>
       <c r="B220">
-        <v>250</v>
+        <v>420</v>
       </c>
       <c r="C220">
-        <v>130</v>
+        <v>260</v>
       </c>
       <c r="D220">
-        <v>380</v>
+        <v>680</v>
       </c>
       <c r="F220" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G220" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>136</v>
+        <v>172</v>
       </c>
       <c r="B221">
-        <v>180</v>
+        <v>270</v>
       </c>
       <c r="C221">
-        <v>80</v>
+        <v>600</v>
       </c>
       <c r="D221">
-        <v>260</v>
+        <v>870</v>
       </c>
       <c r="F221" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G221" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>137</v>
+        <v>174</v>
       </c>
       <c r="B222">
-        <v>140</v>
+        <v>240</v>
       </c>
       <c r="C222">
-        <v>240</v>
+        <v>410</v>
       </c>
       <c r="D222">
-        <v>380</v>
+        <v>650</v>
       </c>
       <c r="F222" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G222" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>138</v>
+        <v>175</v>
       </c>
       <c r="B223">
-        <v>100</v>
+        <v>220</v>
       </c>
       <c r="C223">
-        <v>140</v>
+        <v>320</v>
       </c>
       <c r="D223">
-        <v>240</v>
+        <v>540</v>
       </c>
       <c r="F223" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G223" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>139</v>
+        <v>176</v>
       </c>
       <c r="B224">
-        <v>280</v>
+        <v>90</v>
       </c>
       <c r="C224">
-        <v>470</v>
+        <v>120</v>
       </c>
       <c r="D224">
-        <v>750</v>
+        <v>210</v>
       </c>
       <c r="F224" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G224" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="B225">
-        <v>250</v>
+        <v>380</v>
       </c>
       <c r="C225">
-        <v>370</v>
+        <v>430</v>
       </c>
       <c r="D225">
-        <v>620</v>
+        <v>810</v>
       </c>
       <c r="F225" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G225" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>141</v>
+        <v>182</v>
       </c>
       <c r="B226">
         <v>100</v>
       </c>
       <c r="C226">
-        <v>140</v>
+        <v>190</v>
       </c>
       <c r="D226">
-        <v>240</v>
+        <v>290</v>
       </c>
       <c r="F226" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G226" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>142</v>
+        <v>184</v>
       </c>
       <c r="B227">
-        <v>210</v>
+        <v>90</v>
       </c>
       <c r="C227">
-        <v>540</v>
+        <v>170</v>
       </c>
       <c r="D227">
-        <v>750</v>
+        <v>260</v>
       </c>
       <c r="F227" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G227" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>145</v>
+        <v>186</v>
       </c>
       <c r="B228">
-        <v>270</v>
+        <v>190</v>
       </c>
       <c r="C228">
-        <v>650</v>
+        <v>570</v>
       </c>
       <c r="D228">
-        <v>920</v>
+        <v>760</v>
       </c>
       <c r="F228" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G228" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>146</v>
+        <v>188</v>
       </c>
       <c r="B229">
-        <v>390</v>
+        <v>120</v>
       </c>
       <c r="C229">
-        <v>530</v>
+        <v>210</v>
       </c>
       <c r="D229">
-        <v>920</v>
+        <v>330</v>
       </c>
       <c r="F229" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G229" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>147</v>
+        <v>192</v>
       </c>
       <c r="B230">
-        <v>190</v>
+        <v>140</v>
       </c>
       <c r="C230">
-        <v>350</v>
+        <v>70</v>
       </c>
       <c r="D230">
-        <v>540</v>
+        <v>210</v>
       </c>
       <c r="F230" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G230" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>148</v>
+        <v>193</v>
       </c>
       <c r="B231">
-        <v>100</v>
+        <v>310</v>
       </c>
       <c r="C231">
-        <v>100</v>
+        <v>390</v>
       </c>
       <c r="D231">
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="F231" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G231" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>149</v>
+        <v>196</v>
       </c>
       <c r="B232">
-        <v>410</v>
+        <v>280</v>
       </c>
       <c r="C232">
-        <v>320</v>
+        <v>170</v>
       </c>
       <c r="D232">
-        <v>730</v>
+        <v>450</v>
       </c>
       <c r="F232" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G232" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>150</v>
+        <v>199</v>
       </c>
       <c r="B233">
-        <v>220</v>
+        <v>130</v>
       </c>
       <c r="C233">
-        <v>350</v>
+        <v>160</v>
       </c>
       <c r="D233">
-        <v>570</v>
+        <v>290</v>
       </c>
       <c r="F233" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G233" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>152</v>
+        <v>210</v>
       </c>
       <c r="B234">
-        <v>50</v>
+        <v>220</v>
       </c>
       <c r="C234">
-        <v>150</v>
+        <v>70</v>
       </c>
       <c r="D234">
-        <v>200</v>
+        <v>290</v>
       </c>
       <c r="F234" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G234" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>156</v>
+        <v>211</v>
       </c>
       <c r="B235">
-        <v>290</v>
+        <v>190</v>
       </c>
       <c r="C235">
-        <v>260</v>
+        <v>360</v>
       </c>
       <c r="D235">
         <v>550</v>
       </c>
       <c r="F235" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G235" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>161</v>
+        <v>212</v>
       </c>
       <c r="B236">
-        <v>130</v>
+        <v>340</v>
       </c>
       <c r="C236">
-        <v>120</v>
+        <v>440</v>
       </c>
       <c r="D236">
-        <v>250</v>
+        <v>780</v>
       </c>
       <c r="F236" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G236" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>166</v>
+        <v>215</v>
       </c>
       <c r="B237">
-        <v>290</v>
+        <v>420</v>
       </c>
       <c r="C237">
-        <v>280</v>
+        <v>380</v>
       </c>
       <c r="D237">
-        <v>570</v>
+        <v>800</v>
       </c>
       <c r="F237" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G237" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>169</v>
+        <v>218</v>
       </c>
       <c r="B238">
-        <v>370</v>
+        <v>130</v>
       </c>
       <c r="C238">
-        <v>310</v>
+        <v>100</v>
       </c>
       <c r="D238">
-        <v>680</v>
+        <v>230</v>
       </c>
       <c r="F238" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G238" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>171</v>
+        <v>219</v>
       </c>
       <c r="B239">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="C239">
-        <v>190</v>
+        <v>130</v>
       </c>
       <c r="D239">
         <v>220</v>
       </c>
       <c r="F239" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G239" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>181</v>
+        <v>220</v>
       </c>
       <c r="B240">
-        <v>150</v>
+        <v>70</v>
       </c>
       <c r="C240">
-        <v>280</v>
+        <v>200</v>
       </c>
       <c r="D240">
-        <v>430</v>
+        <v>270</v>
       </c>
       <c r="F240" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G240" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>186</v>
+        <v>223</v>
       </c>
       <c r="B241">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="C241">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="D241">
-        <v>310</v>
+        <v>290</v>
       </c>
       <c r="F241" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G241" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>193</v>
+        <v>228</v>
       </c>
       <c r="B242">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="C242">
-        <v>370</v>
+        <v>210</v>
       </c>
       <c r="D242">
-        <v>490</v>
+        <v>360</v>
       </c>
       <c r="F242" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G242" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>194</v>
+        <v>231</v>
       </c>
       <c r="B243">
-        <v>130</v>
+        <v>180</v>
       </c>
       <c r="C243">
-        <v>230</v>
+        <v>200</v>
       </c>
       <c r="D243">
-        <v>360</v>
+        <v>380</v>
       </c>
       <c r="F243" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G243" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>195</v>
+        <v>232</v>
       </c>
       <c r="B244">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="C244">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="D244">
-        <v>240</v>
+        <v>210</v>
       </c>
       <c r="F244" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G244" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>196</v>
+        <v>247</v>
       </c>
       <c r="B245">
-        <v>150</v>
+        <v>70</v>
       </c>
       <c r="C245">
-        <v>250</v>
+        <v>130</v>
       </c>
       <c r="D245">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="F245" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G245" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>206</v>
+        <v>251</v>
       </c>
       <c r="B246">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="C246">
-        <v>210</v>
+        <v>80</v>
       </c>
       <c r="D246">
-        <v>280</v>
+        <v>200</v>
       </c>
       <c r="F246" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G246" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>207</v>
+        <v>255</v>
       </c>
       <c r="B247">
-        <v>390</v>
+        <v>130</v>
       </c>
       <c r="C247">
-        <v>450</v>
+        <v>150</v>
       </c>
       <c r="D247">
-        <v>840</v>
+        <v>280</v>
       </c>
       <c r="F247" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G247" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>209</v>
+        <v>256</v>
       </c>
       <c r="B248">
-        <v>220</v>
+        <v>110</v>
       </c>
       <c r="C248">
-        <v>280</v>
+        <v>90</v>
       </c>
       <c r="D248">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="F248" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G248" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>217</v>
+        <v>257</v>
       </c>
       <c r="B249">
-        <v>370</v>
+        <v>160</v>
       </c>
       <c r="C249">
-        <v>220</v>
+        <v>170</v>
       </c>
       <c r="D249">
-        <v>590</v>
+        <v>330</v>
       </c>
       <c r="F249" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G249" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>230</v>
+        <v>258</v>
       </c>
       <c r="B250">
-        <v>110</v>
+        <v>170</v>
       </c>
       <c r="C250">
-        <v>530</v>
+        <v>160</v>
       </c>
       <c r="D250">
-        <v>640</v>
+        <v>330</v>
       </c>
       <c r="F250" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G250" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>232</v>
+        <v>260</v>
       </c>
       <c r="B251">
-        <v>50</v>
+        <v>260</v>
       </c>
       <c r="C251">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="D251">
-        <v>260</v>
+        <v>460</v>
       </c>
       <c r="F251" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G251" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>238</v>
+        <v>262</v>
       </c>
       <c r="B252">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="C252">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="D252">
-        <v>230</v>
+        <v>280</v>
       </c>
       <c r="F252" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G252" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>241</v>
+        <v>263</v>
       </c>
       <c r="B253">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="C253">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="D253">
-        <v>360</v>
+        <v>330</v>
       </c>
       <c r="F253" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G253" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
-        <v>242</v>
+        <v>265</v>
       </c>
       <c r="B254">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="C254">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="D254">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="F254" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G254" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
-        <v>247</v>
+        <v>267</v>
       </c>
       <c r="B255">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="C255">
-        <v>110</v>
+        <v>290</v>
       </c>
       <c r="D255">
-        <v>200</v>
+        <v>370</v>
       </c>
       <c r="F255" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G255" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
-        <v>248</v>
+        <v>268</v>
       </c>
       <c r="B256">
+        <v>80</v>
+      </c>
+      <c r="C256">
         <v>170</v>
       </c>
-      <c r="C256">
-        <v>90</v>
-      </c>
       <c r="D256">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="F256" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G256" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A257" t="s">
-        <v>259</v>
-      </c>
-      <c r="B257">
-        <v>160</v>
-      </c>
-      <c r="C257">
-        <v>220</v>
-      </c>
-      <c r="D257">
-        <v>380</v>
-      </c>
-      <c r="F257" t="s">
-        <v>14</v>
-      </c>
-      <c r="G257" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A258" t="s">
-        <v>261</v>
-      </c>
-      <c r="B258">
-        <v>200</v>
-      </c>
-      <c r="C258">
-        <v>100</v>
-      </c>
-      <c r="D258">
-        <v>300</v>
-      </c>
-      <c r="F258" t="s">
-        <v>14</v>
-      </c>
-      <c r="G258" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A259" t="s">
-        <v>262</v>
-      </c>
-      <c r="B259">
-        <v>170</v>
-      </c>
-      <c r="C259">
-        <v>70</v>
-      </c>
-      <c r="D259">
-        <v>240</v>
-      </c>
-      <c r="F259" t="s">
-        <v>14</v>
-      </c>
-      <c r="G259" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A260" t="s">
-        <v>264</v>
-      </c>
-      <c r="B260">
-        <v>160</v>
-      </c>
-      <c r="C260">
-        <v>170</v>
-      </c>
-      <c r="D260">
-        <v>330</v>
-      </c>
-      <c r="F260" t="s">
-        <v>14</v>
-      </c>
-      <c r="G260" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A261" t="s">
-        <v>270</v>
-      </c>
-      <c r="B261">
-        <v>100</v>
-      </c>
-      <c r="C261">
-        <v>220</v>
-      </c>
-      <c r="D261">
-        <v>320</v>
-      </c>
-      <c r="F261" t="s">
-        <v>14</v>
-      </c>
-      <c r="G261" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A262" t="s">
-        <v>271</v>
-      </c>
-      <c r="B262">
-        <v>260</v>
-      </c>
-      <c r="C262">
-        <v>360</v>
-      </c>
-      <c r="D262">
-        <v>620</v>
-      </c>
-      <c r="F262" t="s">
-        <v>14</v>
-      </c>
-      <c r="G262" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A263" t="s">
-        <v>274</v>
-      </c>
-      <c r="B263">
-        <v>130</v>
-      </c>
-      <c r="C263">
-        <v>140</v>
-      </c>
-      <c r="D263">
-        <v>270</v>
-      </c>
-      <c r="F263" t="s">
-        <v>14</v>
-      </c>
-      <c r="G263" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A264" t="s">
-        <v>275</v>
-      </c>
-      <c r="B264">
-        <v>160</v>
-      </c>
-      <c r="C264">
-        <v>150</v>
-      </c>
-      <c r="D264">
-        <v>310</v>
-      </c>
-      <c r="F264" t="s">
-        <v>14</v>
-      </c>
-      <c r="G264" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A265" t="s">
-        <v>283</v>
-      </c>
-      <c r="B265">
-        <v>180</v>
-      </c>
-      <c r="C265">
-        <v>120</v>
-      </c>
-      <c r="D265">
-        <v>300</v>
-      </c>
-      <c r="F265" t="s">
-        <v>14</v>
-      </c>
-      <c r="G265" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G265">
-    <sortCondition ref="F1:F265"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G256">
+    <sortCondition ref="F1:F256"/>
   </sortState>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>